--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\University\Terme 7\TA\OR2\Phase 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3699803-A92C-496C-8670-BA26979C77CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3035E279-7F74-43C9-9E4C-ED341A7A15BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Unskilled</t>
   </si>
@@ -40,18 +40,6 @@
     <t>Skilled</t>
   </si>
   <si>
-    <t>Current strength</t>
-  </si>
-  <si>
-    <t>Year 1</t>
-  </si>
-  <si>
-    <t>Year 2</t>
-  </si>
-  <si>
-    <t>Year 3</t>
-  </si>
-  <si>
     <t>Less than one year's service</t>
   </si>
   <si>
@@ -74,6 +62,9 @@
   </si>
   <si>
     <t>Cost of short-time working per employee per year</t>
+  </si>
+  <si>
+    <t>year\skill</t>
   </si>
 </sst>
 </file>
@@ -105,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8D9F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,12 +219,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -253,6 +244,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,30 +572,28 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -612,9 +604,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>2000</v>
@@ -626,9 +618,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>4</v>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>1000</v>
@@ -640,9 +632,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>5</v>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>500</v>
@@ -654,9 +646,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -678,66 +670,62 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8">
-        <v>25</v>
-      </c>
-      <c r="D3" s="8">
-        <v>20</v>
-      </c>
-      <c r="E3" s="8">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>5</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>5</v>
       </c>
     </row>
@@ -751,51 +739,47 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="39.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
         <v>500</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>800</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>500</v>
       </c>
     </row>
@@ -809,49 +793,45 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="12">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10">
         <v>1500</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>2000</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>3000</v>
       </c>
     </row>
@@ -865,49 +845,45 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="13" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="14">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12">
         <v>500</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>400</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>400</v>
       </c>
     </row>

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3035E279-7F74-43C9-9E4C-ED341A7A15BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C44FCC3-37C3-4E2A-9949-ADF8423AB631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
     <sheet name="W" sheetId="2" r:id="rId2"/>
     <sheet name="R" sheetId="3" r:id="rId3"/>
-    <sheet name="O" sheetId="4" r:id="rId4"/>
-    <sheet name="S" sheetId="5" r:id="rId5"/>
+    <sheet name="T" sheetId="7" r:id="rId4"/>
+    <sheet name="O" sheetId="4" r:id="rId5"/>
+    <sheet name="S" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Unskilled</t>
   </si>
@@ -40,21 +41,6 @@
     <t>Skilled</t>
   </si>
   <si>
-    <t>Less than one year's service</t>
-  </si>
-  <si>
-    <t>More than one year's service</t>
-  </si>
-  <si>
-    <t>Unskilled (%)</t>
-  </si>
-  <si>
-    <t>Semi-skilled (%)</t>
-  </si>
-  <si>
-    <t>Skilled (%)</t>
-  </si>
-  <si>
     <t>Numbers that can be recruited in one year</t>
   </si>
   <si>
@@ -65,6 +51,24 @@
   </si>
   <si>
     <t>year\skill</t>
+  </si>
+  <si>
+    <t>Training limit for unskilled to semi-skilled</t>
+  </si>
+  <si>
+    <t>Threshold for high skill worker training</t>
+  </si>
+  <si>
+    <t>Overhiring Limit</t>
+  </si>
+  <si>
+    <t>Parttime Limit</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Experienced</t>
   </si>
 </sst>
 </file>
@@ -96,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +170,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,6 +263,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,7 +614,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -673,7 +695,7 @@
   <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,18 +714,18 @@
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6">
         <v>25</v>
@@ -717,7 +739,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6">
         <v>10</v>
@@ -742,7 +764,7 @@
   <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,7 +793,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" s="8">
         <v>500</v>
@@ -789,14 +811,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7091F0F1-A34F-4C30-A4FD-63572ADE18CE}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="D5:E6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DB2278-BCF6-4143-805D-E01057BC67D4}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,7 +885,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="10">
         <v>1500</v>
@@ -833,6 +895,14 @@
       </c>
       <c r="E3" s="10">
         <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -840,15 +910,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048B9419-D96E-4592-8913-CDE1462A80FE}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +945,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="12">
         <v>500</v>
@@ -885,6 +955,14 @@
       </c>
       <c r="E3" s="12">
         <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C44FCC3-37C3-4E2A-9949-ADF8423AB631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0816D6FD-AF5E-4F7C-8327-9770EC0D75AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
+    <workbookView xWindow="3510" yWindow="4275" windowWidth="21600" windowHeight="11325" activeTab="6" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="T" sheetId="7" r:id="rId4"/>
     <sheet name="O" sheetId="4" r:id="rId5"/>
     <sheet name="S" sheetId="5" r:id="rId6"/>
+    <sheet name="Results" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Unskilled</t>
   </si>
@@ -69,6 +70,15 @@
   </si>
   <si>
     <t>Experienced</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -224,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,6 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,19 +611,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
@@ -626,7 +637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -640,7 +651,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -654,7 +665,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -668,7 +679,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -694,24 +705,24 @@
   </sheetPr>
   <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>0</v>
@@ -723,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
@@ -737,7 +748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -767,19 +778,19 @@
       <selection activeCell="B7" sqref="B7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="39.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -791,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -821,15 +832,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
@@ -837,7 +848,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
@@ -861,17 +872,17 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="9" t="s">
         <v>0</v>
@@ -883,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
@@ -897,7 +908,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
@@ -921,17 +932,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="11" t="s">
         <v>0</v>
@@ -943,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
@@ -957,12 +968,77 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="12">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393493DB-C15A-47DF-A068-738B05E7E33D}">
+  <dimension ref="B2:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>3000</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>101000</v>
+      </c>
+      <c r="E5">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0816D6FD-AF5E-4F7C-8327-9770EC0D75AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9494B28A-A6E8-4DFE-853B-FDFE0E61C9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="4275" windowWidth="21600" windowHeight="11325" activeTab="6" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Unskilled</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -826,10 +829,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="D5:E6"/>
+  <dimension ref="D4:E8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,9 +840,14 @@
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D5" s="14" t="s">
         <v>7</v>
@@ -848,11 +856,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="14" t="s">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E8" s="15">
         <v>0.25</v>
       </c>
     </row>
@@ -869,7 +882,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,6 +921,11 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>9</v>
@@ -926,10 +944,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,10 +987,15 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C6" s="12">
         <v>50</v>
       </c>
     </row>
@@ -986,7 +1009,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9494B28A-A6E8-4DFE-853B-FDFE0E61C9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5DE314-9AA6-4EC5-9C48-BAA1F5A72F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="4275" windowWidth="21600" windowHeight="11325" activeTab="6" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
@@ -1033,7 +1033,7 @@
         <v>1000</v>
       </c>
       <c r="D3">
-        <v>3000</v>
+        <v>21200</v>
       </c>
       <c r="E3">
         <v>1000</v>
@@ -1050,7 +1050,7 @@
         <v>2000</v>
       </c>
       <c r="E4">
-        <v>29000</v>
+        <v>63800</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>101000</v>
+        <v>240200</v>
       </c>
       <c r="E5">
         <v>2000</v>

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5DE314-9AA6-4EC5-9C48-BAA1F5A72F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE54DD0A-F7A2-4E56-87E7-4BD79F9A49DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="4275" windowWidth="21600" windowHeight="11325" activeTab="6" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
@@ -1050,7 +1050,7 @@
         <v>2000</v>
       </c>
       <c r="E4">
-        <v>63800</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>240200</v>
+        <v>201800</v>
       </c>
       <c r="E5">
         <v>2000</v>

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE54DD0A-F7A2-4E56-87E7-4BD79F9A49DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9114204-9F6B-4AF0-9F7C-C071BE690F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="4275" windowWidth="21600" windowHeight="11325" activeTab="6" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Unskilled</t>
   </si>
@@ -70,15 +70,6 @@
   </si>
   <si>
     <t>Experienced</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Fixed</t>
@@ -845,7 +836,7 @@
   <sheetData>
     <row r="4" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E4" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.25">
@@ -858,7 +849,7 @@
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E7" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.25">
@@ -923,7 +914,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -988,7 +979,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1015,54 +1006,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>21200</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>500</v>
-      </c>
-      <c r="D4">
-        <v>2000</v>
-      </c>
-      <c r="E4">
-        <v>45000</v>
-      </c>
+      <c r="B4" s="16"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>201800</v>
-      </c>
-      <c r="E5">
-        <v>2000</v>
-      </c>
+      <c r="B5" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9114204-9F6B-4AF0-9F7C-C071BE690F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A837CA-C904-45DE-A439-E6615CC473B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="4275" windowWidth="21600" windowHeight="11325" activeTab="6" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="O" sheetId="4" r:id="rId5"/>
     <sheet name="S" sheetId="5" r:id="rId6"/>
     <sheet name="Results" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="38">
   <si>
     <t>Unskilled</t>
   </si>
@@ -73,6 +74,78 @@
   </si>
   <si>
     <t>Fixed</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Eps</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>from\to</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Demote</t>
+  </si>
+  <si>
+    <t>year\variable</t>
+  </si>
+  <si>
+    <t>Churn New</t>
+  </si>
+  <si>
+    <t>Churn Old</t>
+  </si>
+  <si>
+    <t>W Valid</t>
+  </si>
+  <si>
+    <t>Train(l)</t>
+  </si>
+  <si>
+    <t>D(hl)</t>
+  </si>
+  <si>
+    <t>D(hm)</t>
+  </si>
+  <si>
+    <t>D(ml)</t>
+  </si>
+  <si>
+    <t>Train(lm)</t>
+  </si>
+  <si>
+    <t>Train(mh)</t>
   </si>
 </sst>
 </file>
@@ -104,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +262,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -224,11 +315,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,6 +376,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,19 +723,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
@@ -631,7 +749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -645,7 +763,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -659,7 +777,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -673,7 +791,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -700,23 +818,23 @@
   <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="B2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>0</v>
@@ -728,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
@@ -742,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -772,19 +890,19 @@
       <selection activeCell="B7" sqref="B7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="39.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -796,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -826,20 +944,20 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
@@ -847,12 +965,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D8" s="14" t="s">
         <v>8</v>
       </c>
@@ -876,17 +994,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="9" t="s">
         <v>0</v>
@@ -898,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
@@ -912,12 +1030,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
@@ -941,17 +1059,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="11" t="s">
         <v>0</v>
@@ -963,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
@@ -977,12 +1095,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -997,27 +1115,2308 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393493DB-C15A-47DF-A068-738B05E7E33D}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1400</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>700</v>
+      </c>
+      <c r="D5">
+        <v>2030</v>
+      </c>
+      <c r="E5">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>630</v>
+      </c>
+      <c r="D6">
+        <v>2500</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1333.3333333333333</v>
+      </c>
+      <c r="D9">
+        <v>1750</v>
+      </c>
+      <c r="E9">
+        <v>961.11111111111109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>714.375</v>
+      </c>
+      <c r="E11">
+        <v>549.16666666666652</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1000</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0981435F-E468-423E-B9AB-BE5B908F2544}">
+  <dimension ref="A2:T68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="17"/>
+    <col min="8" max="8" width="12.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="17" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="20" t="str">
+        <f>Results!C2</f>
+        <v>Unskilled</v>
+      </c>
+      <c r="D2" s="20" t="str">
+        <f>Results!D2</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="E2" s="20" t="str">
+        <f>Results!E2</f>
+        <v>Skilled</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <f>IF(Results!C3= "Eps", 0, Results!C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <f>IF(Results!D3= "Eps", 0, Results!D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <f>IF(Results!E3= "Eps", 0, Results!E3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B4)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
+        <f>IF(Results!C4= "Eps", 0, Results!C4)</f>
+        <v>1000</v>
+      </c>
+      <c r="D4" s="17">
+        <f>IF(Results!D4= "Eps", 0, Results!D4)</f>
+        <v>1400</v>
+      </c>
+      <c r="E4" s="17">
+        <f>IF(Results!E4= "Eps", 0, Results!E4)</f>
+        <v>1000</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <f>VLOOKUP($H4,$B$3:$E$6,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <f>VLOOKUP($H4,$B$9:$E$12,2,FALSE)</f>
+        <v>1333.3333333333333</v>
+      </c>
+      <c r="K4" s="17">
+        <f>VLOOKUP($H4,$B$15:$E$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
+        <f>VLOOKUP($H4,$B$21:$E$24,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <f>VLOOKUP($H4,$B$27:$E$30,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="17">
+        <f>E33</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="17">
+        <f>D49</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="17">
+        <f>D48</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>0</v>
+      </c>
+      <c r="R4" s="17">
+        <v>0</v>
+      </c>
+      <c r="S4" s="17">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B5)</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="17">
+        <f>IF(Results!C5= "Eps", 0, Results!C5)</f>
+        <v>700</v>
+      </c>
+      <c r="D5" s="17">
+        <f>IF(Results!D5= "Eps", 0, Results!D5)</f>
+        <v>2030</v>
+      </c>
+      <c r="E5" s="17">
+        <f>IF(Results!E5= "Eps", 0, Results!E5)</f>
+        <v>1585</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17">
+        <f>VLOOKUP($H5,$B$3:$E$6,2,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="J5" s="17">
+        <f>VLOOKUP($H5,$B$9:$E$12,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <f>VLOOKUP($H5,$B$15:$E$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
+        <f>VLOOKUP($H5,$B$21:$E$24,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <f>VLOOKUP($H5,$B$27:$E$30,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="17">
+        <f>E36</f>
+        <v>200</v>
+      </c>
+      <c r="O5" s="17">
+        <f>D52</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
+        <f>D51</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
+        <f>$B$67/100* (J4+ M4)</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="R5" s="17">
+        <f>0.01* $B$68* (I4)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="17">
+        <f>S4+J4+M4-L4-N4+O4+P4-Q5-R5</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B6)</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="17">
+        <f>IF(Results!C6= "Eps", 0, Results!C6)</f>
+        <v>630</v>
+      </c>
+      <c r="D6" s="17">
+        <f>IF(Results!D6= "Eps", 0, Results!D6)</f>
+        <v>2500</v>
+      </c>
+      <c r="E6" s="17">
+        <f>IF(Results!E6= "Eps", 0, Results!E6)</f>
+        <v>2000</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2</v>
+      </c>
+      <c r="I6" s="17">
+        <f>VLOOKUP($H6,$B$3:$E$6,2,FALSE)</f>
+        <v>700</v>
+      </c>
+      <c r="J6" s="17">
+        <f>VLOOKUP($H6,$B$9:$E$12,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <f>VLOOKUP($H6,$B$15:$E$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
+        <f>VLOOKUP($H6,$B$21:$E$24,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <f>VLOOKUP($H6,$B$27:$E$30,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
+        <f>E39</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <f>D55</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <f>D54</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
+        <f>$B$67/100* (J5+ M5)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <f>0.01* $B$68* (I5)</f>
+        <v>100</v>
+      </c>
+      <c r="S6" s="17">
+        <f>S5+J5+M5-L5-N5+O5+P5-Q6-R6</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H7" s="19">
+        <v>3</v>
+      </c>
+      <c r="I7" s="17">
+        <f>VLOOKUP($H7,$B$3:$E$6,2,FALSE)</f>
+        <v>630</v>
+      </c>
+      <c r="J7" s="17">
+        <f>VLOOKUP($H7,$B$9:$E$12,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <f>VLOOKUP($H7,$B$15:$E$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
+        <f>VLOOKUP($H7,$B$21:$E$24,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <f>VLOOKUP($H7,$B$27:$E$30,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
+        <f>E42</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="17">
+        <f>D58</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="17">
+        <f>D57</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17">
+        <f t="shared" ref="Q7" si="0">$B$67/100* (J6+ M6)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="17">
+        <f>0.01* $B$68* (I6)</f>
+        <v>70</v>
+      </c>
+      <c r="S7" s="17">
+        <f>S6+J6+M6-L6-N6+O6+P6-Q7-R7</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20" t="str">
+        <f>IF(Results!C8= "Eps", 0, Results!C8)</f>
+        <v>Unskilled</v>
+      </c>
+      <c r="D8" s="20" t="str">
+        <f>IF(Results!D8= "Eps", 0, Results!D8)</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="E8" s="20" t="str">
+        <f>IF(Results!E8= "Eps", 0, Results!E8)</f>
+        <v>Skilled</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <f>IF(Results!C9= "Eps", 0, Results!C9)</f>
+        <v>1333.3333333333333</v>
+      </c>
+      <c r="D9" s="17">
+        <f>IF(Results!D9= "Eps", 0, Results!D9)</f>
+        <v>1750</v>
+      </c>
+      <c r="E9" s="17">
+        <f>IF(Results!E9= "Eps", 0, Results!E9)</f>
+        <v>961.11111111111109</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B10)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <f>IF(Results!C10= "Eps", 0, Results!C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <f>IF(Results!D10= "Eps", 0, Results!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <f>IF(Results!E10= "Eps", 0, Results!E10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B11)</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="17">
+        <f>IF(Results!C11= "Eps", 0, Results!C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <f>IF(Results!D11= "Eps", 0, Results!D11)</f>
+        <v>714.375</v>
+      </c>
+      <c r="E11" s="17">
+        <f>IF(Results!E11= "Eps", 0, Results!E11)</f>
+        <v>549.16666666666652</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <f>VLOOKUP($H11,$B$3:$E$6,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <f>VLOOKUP($H11,$B$9:$E$12,3,FALSE)</f>
+        <v>1750</v>
+      </c>
+      <c r="K11" s="17">
+        <f>VLOOKUP($H11,$B$15:$E$18,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
+        <f>VLOOKUP($H11,$B$21:$E$24,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <f>VLOOKUP($H11,$B$27:$E$30,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="17">
+        <f>F34</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="17">
+        <f>N4</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="17">
+        <f>D48</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17">
+        <f>E49</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="17">
+        <v>0</v>
+      </c>
+      <c r="S11" s="17">
+        <v>0</v>
+      </c>
+      <c r="T11" s="17">
+        <f>I11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B12)</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="17">
+        <f>IF(Results!C12= "Eps", 0, Results!C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <f>IF(Results!D12= "Eps", 0, Results!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <f>IF(Results!E12= "Eps", 0, Results!E12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17">
+        <f>VLOOKUP($H12,$B$3:$E$6,3,FALSE)</f>
+        <v>1400</v>
+      </c>
+      <c r="J12" s="17">
+        <f>VLOOKUP($H12,$B$9:$E$12,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <f>VLOOKUP($H12,$B$15:$E$18,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
+        <f>VLOOKUP($H12,$B$21:$E$24,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <f>VLOOKUP($H12,$B$27:$E$30,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="17">
+        <f>F37</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="17">
+        <f t="shared" ref="O12:O14" si="1">N5</f>
+        <v>200</v>
+      </c>
+      <c r="P12" s="17">
+        <f>D51</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17">
+        <f>E52</f>
+        <v>1000</v>
+      </c>
+      <c r="R12" s="17">
+        <f>$C$67/100* (J11+ M11)</f>
+        <v>350</v>
+      </c>
+      <c r="S12" s="17">
+        <f>0.01* $C$68* (I11)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="17">
+        <f>T11+J11+M11-L11+O11-P11+Q11-N11-R12-S12</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H13" s="19">
+        <v>2</v>
+      </c>
+      <c r="I13" s="17">
+        <f>VLOOKUP($H13,$B$3:$E$6,3,FALSE)</f>
+        <v>2030</v>
+      </c>
+      <c r="J13" s="17">
+        <f>VLOOKUP($H13,$B$9:$E$12,3,FALSE)</f>
+        <v>714.375</v>
+      </c>
+      <c r="K13" s="17">
+        <f>VLOOKUP($H13,$B$15:$E$18,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
+        <f>VLOOKUP($H13,$B$21:$E$24,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <f>VLOOKUP($H13,$B$27:$E$30,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="17">
+        <f>F40</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
+        <f>D54</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="17">
+        <f>E55</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="17">
+        <f t="shared" ref="R13:R14" si="2">$C$67/100* (J12+ M12)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="17">
+        <f t="shared" ref="S13:S14" si="3">0.01* $C$68* (I12)</f>
+        <v>70</v>
+      </c>
+      <c r="T13" s="17">
+        <f>T12+J12+M12-L12+O12-P12+Q12-N12-R13-S13</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20" t="str">
+        <f>IF(Results!C14= "Eps", 0, Results!C14)</f>
+        <v>Unskilled</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <f>IF(Results!D14= "Eps", 0, Results!D14)</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="E14" s="20" t="str">
+        <f>IF(Results!E14= "Eps", 0, Results!E14)</f>
+        <v>Skilled</v>
+      </c>
+      <c r="H14" s="19">
+        <v>3</v>
+      </c>
+      <c r="I14" s="17">
+        <f>VLOOKUP($H14,$B$3:$E$6,3,FALSE)</f>
+        <v>2500</v>
+      </c>
+      <c r="J14" s="17">
+        <f>VLOOKUP($H14,$B$9:$E$12,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <f>VLOOKUP($H14,$B$15:$E$18,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
+        <f>VLOOKUP($H14,$B$21:$E$24,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <f>VLOOKUP($H14,$B$27:$E$30,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
+        <f>F43</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <f>D57</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="17">
+        <f>E58</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="17">
+        <f t="shared" si="2"/>
+        <v>142.875</v>
+      </c>
+      <c r="S14" s="17">
+        <f t="shared" si="3"/>
+        <v>101.5</v>
+      </c>
+      <c r="T14" s="17">
+        <f>T13+J13+M13-L13+O13-P13+Q13-N13-R14-S14</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B15)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="17">
+        <f>IF(Results!C15= "Eps", 0, Results!C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <f>IF(Results!D15= "Eps", 0, Results!D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <f>IF(Results!E15= "Eps", 0, Results!E15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B16)</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="17">
+        <f>IF(Results!C16= "Eps", 0, Results!C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <f>IF(Results!D16= "Eps", 0, Results!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <f>IF(Results!E16= "Eps", 0, Results!E16)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B17)</f>
+        <v>2</v>
+      </c>
+      <c r="C17" s="17">
+        <f>IF(Results!C17= "Eps", 0, Results!C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <f>IF(Results!D17= "Eps", 0, Results!D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <f>IF(Results!E17= "Eps", 0, Results!E17)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B18)</f>
+        <v>3</v>
+      </c>
+      <c r="C18" s="17">
+        <f>IF(Results!C18= "Eps", 0, Results!C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <f>IF(Results!D18= "Eps", 0, Results!D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <f>IF(Results!E18= "Eps", 0, Results!E18)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
+        <f>VLOOKUP($H18,$B$3:$E$6,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <f>VLOOKUP($H18,$B$9:$E$12,4,FALSE)</f>
+        <v>961.11111111111109</v>
+      </c>
+      <c r="K18" s="17">
+        <f>VLOOKUP($H18,$B$15:$E$18,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
+        <f>VLOOKUP($H18,$B$21:$E$24,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <f>VLOOKUP($H18,$B$27:$E$30,4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N18" s="17">
+        <f>N11</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="17">
+        <f>Q11</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="17">
+        <f>O4</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>0</v>
+      </c>
+      <c r="R18" s="17">
+        <v>0</v>
+      </c>
+      <c r="S18" s="17">
+        <f>I18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" ref="I19:I21" si="4">VLOOKUP($H19,$B$3:$E$6,4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" ref="J19:J21" si="5">VLOOKUP($H19,$B$9:$E$12,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <f t="shared" ref="K19:K21" si="6">VLOOKUP($H19,$B$15:$E$18,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" ref="L19:L21" si="7">VLOOKUP($H19,$B$21:$E$24,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <f t="shared" ref="M19:M21" si="8">VLOOKUP($H19,$B$27:$E$30,4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N19" s="17">
+        <f t="shared" ref="N19:N21" si="9">N12</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="17">
+        <f t="shared" ref="O19:O21" si="10">Q12</f>
+        <v>1000</v>
+      </c>
+      <c r="P19" s="17">
+        <f t="shared" ref="P19:P21" si="11">O5</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="17">
+        <f>$D$67/100* (J18+ M18)</f>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="R19" s="17">
+        <f>0.01* $D$68* (I18)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="17">
+        <f>S18+J18+M18-L18-N18+O18+P18-Q19-R19</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="20" t="str">
+        <f>IF(Results!C20= "Eps", 0, Results!C20)</f>
+        <v>Unskilled</v>
+      </c>
+      <c r="D20" s="20" t="str">
+        <f>IF(Results!D20= "Eps", 0, Results!D20)</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="E20" s="20" t="str">
+        <f>IF(Results!E20= "Eps", 0, Results!E20)</f>
+        <v>Skilled</v>
+      </c>
+      <c r="H20" s="19">
+        <v>2</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="4"/>
+        <v>1585</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="5"/>
+        <v>549.16666666666652</v>
+      </c>
+      <c r="K20" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="17">
+        <f t="shared" ref="Q20:Q21" si="12">$D$67/100* (J19+ M19)</f>
+        <v>15</v>
+      </c>
+      <c r="R20" s="17">
+        <f t="shared" ref="R20:R21" si="13">0.01* $D$68* (I19)</f>
+        <v>50</v>
+      </c>
+      <c r="S20" s="17">
+        <f t="shared" ref="S20:S21" si="14">S19+J19+M19-L19-N19+O19+P19-Q20-R20</f>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B21)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
+        <f>IF(Results!C21= "Eps", 0, Results!C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="17">
+        <f>IF(Results!D21= "Eps", 0, Results!D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <f>IF(Results!E21= "Eps", 0, Results!E21)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="19">
+        <v>3</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="17">
+        <f t="shared" si="12"/>
+        <v>54.916666666666657</v>
+      </c>
+      <c r="R21" s="17">
+        <f t="shared" si="13"/>
+        <v>79.25</v>
+      </c>
+      <c r="S21" s="17">
+        <f t="shared" si="14"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B22)</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="17">
+        <f>IF(Results!C22= "Eps", 0, Results!C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <f>IF(Results!D22= "Eps", 0, Results!D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <f>IF(Results!E22= "Eps", 0, Results!E22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B23)</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="17">
+        <f>IF(Results!C23= "Eps", 0, Results!C23)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="17">
+        <f>IF(Results!D23= "Eps", 0, Results!D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <f>IF(Results!E23= "Eps", 0, Results!E23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B24)</f>
+        <v>3</v>
+      </c>
+      <c r="C24" s="17">
+        <f>IF(Results!C24= "Eps", 0, Results!C24)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <f>IF(Results!D24= "Eps", 0, Results!D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <f>IF(Results!E24= "Eps", 0, Results!E24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="19" t="str">
+        <f>IF(Results!C26= "Eps", 0, Results!C26)</f>
+        <v>Unskilled</v>
+      </c>
+      <c r="D26" s="19" t="str">
+        <f>IF(Results!D26= "Eps", 0, Results!D26)</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="E26" s="19" t="str">
+        <f>IF(Results!E26= "Eps", 0, Results!E26)</f>
+        <v>Skilled</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B27)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <f>IF(Results!C27= "Eps", 0, Results!C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <f>IF(Results!D27= "Eps", 0, Results!D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <f>IF(Results!E27= "Eps", 0, Results!E27)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B28)</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="17">
+        <f>IF(Results!C28= "Eps", 0, Results!C28)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="17">
+        <f>IF(Results!D28= "Eps", 0, Results!D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <f>IF(Results!E28= "Eps", 0, Results!E28)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B29)</f>
+        <v>2</v>
+      </c>
+      <c r="C29" s="17">
+        <f>IF(Results!C29= "Eps", 0, Results!C29)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="17">
+        <f>IF(Results!D29= "Eps", 0, Results!D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <f>IF(Results!E29= "Eps", 0, Results!E29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B30)</f>
+        <v>3</v>
+      </c>
+      <c r="C30" s="17">
+        <f>IF(Results!C30= "Eps", 0, Results!C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="17">
+        <f>IF(Results!D30= "Eps", 0, Results!D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <f>IF(Results!E30= "Eps", 0, Results!E30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="20" t="str">
+        <f>IF(Results!D32= "Eps", 0, Results!D32)</f>
+        <v>Unskilled</v>
+      </c>
+      <c r="E32" s="20" t="str">
+        <f>IF(Results!E32= "Eps", 0, Results!E32)</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="F32" s="20" t="str">
+        <f>IF(Results!F32= "Eps", 0, Results!F32)</f>
+        <v>Skilled</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B33)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="str">
+        <f>IF(Results!C33= "Eps", 0, Results!C33)</f>
+        <v>Unskilled</v>
+      </c>
+      <c r="E33" s="17">
+        <f>IF(Results!E33= "Eps", 0, Results!E33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B34)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="str">
+        <f>IF(Results!C34= "Eps", 0, Results!C34)</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="F34" s="17">
+        <f>IF(Results!F34= "Eps", 0, Results!F34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B35)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="str">
+        <f>IF(Results!C35= "Eps", 0, Results!C35)</f>
+        <v>Skilled</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B36)</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="19" t="str">
+        <f>IF(Results!C36= "Eps", 0, Results!C36)</f>
+        <v>Unskilled</v>
+      </c>
+      <c r="E36" s="17">
+        <f>IF(Results!E36= "Eps", 0, Results!E36)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B37)</f>
+        <v>1</v>
+      </c>
+      <c r="C37" s="19" t="str">
+        <f>IF(Results!C37= "Eps", 0, Results!C37)</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="F37" s="17">
+        <f>IF(Results!F37= "Eps", 0, Results!F37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B38)</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="19" t="str">
+        <f>IF(Results!C38= "Eps", 0, Results!C38)</f>
+        <v>Skilled</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B39)</f>
+        <v>2</v>
+      </c>
+      <c r="C39" s="19" t="str">
+        <f>IF(Results!C39= "Eps", 0, Results!C39)</f>
+        <v>Unskilled</v>
+      </c>
+      <c r="E39" s="17">
+        <f>IF(Results!E39= "Eps", 0, Results!E39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B40)</f>
+        <v>2</v>
+      </c>
+      <c r="C40" s="19" t="str">
+        <f>IF(Results!C40= "Eps", 0, Results!C40)</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="F40" s="17">
+        <f>IF(Results!F40= "Eps", 0, Results!F40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B41)</f>
+        <v>2</v>
+      </c>
+      <c r="C41" s="19" t="str">
+        <f>IF(Results!C41= "Eps", 0, Results!C41)</f>
+        <v>Skilled</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B42)</f>
+        <v>3</v>
+      </c>
+      <c r="C42" s="19" t="str">
+        <f>IF(Results!C42= "Eps", 0, Results!C42)</f>
+        <v>Unskilled</v>
+      </c>
+      <c r="E42" s="17">
+        <f>IF(Results!E42= "Eps", 0, Results!E42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B43)</f>
+        <v>3</v>
+      </c>
+      <c r="C43" s="19" t="str">
+        <f>IF(Results!C43= "Eps", 0, Results!C43)</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="F43" s="17">
+        <f>IF(Results!F43= "Eps", 0, Results!F43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B44)</f>
+        <v>3</v>
+      </c>
+      <c r="C44" s="19" t="str">
+        <f>IF(Results!C44= "Eps", 0, Results!C44)</f>
+        <v>Skilled</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="20" t="str">
+        <f>IF(Results!D50= "Eps", 0, Results!D50)</f>
+        <v>Unskilled</v>
+      </c>
+      <c r="E46" s="20" t="str">
+        <f>IF(Results!E50= "Eps", 0, Results!E50)</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="F46" s="20" t="str">
+        <f>IF(Results!F50= "Eps", 0, Results!F50)</f>
+        <v>Skilled</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B51)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="19" t="str">
+        <f>IF(Results!C51= "Eps", 0, Results!C51)</f>
+        <v>Unskilled</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B52)</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="19" t="str">
+        <f>IF(Results!C52= "Eps", 0, Results!C52)</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="D48" s="17">
+        <f>IF(Results!D52= "Eps", 0, Results!D52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B53)</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="19" t="str">
+        <f>IF(Results!C53= "Eps", 0, Results!C53)</f>
+        <v>Skilled</v>
+      </c>
+      <c r="D49" s="17">
+        <f>IF(Results!D53= "Eps", 0, Results!D53)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="17">
+        <f>IF(Results!E53= "Eps", 0, Results!E53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B54)</f>
+        <v>1</v>
+      </c>
+      <c r="C50" s="19" t="str">
+        <f>IF(Results!C54= "Eps", 0, Results!C54)</f>
+        <v>Unskilled</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B55)</f>
+        <v>1</v>
+      </c>
+      <c r="C51" s="19" t="str">
+        <f>IF(Results!C55= "Eps", 0, Results!C55)</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="D51" s="17">
+        <f>IF(Results!D55= "Eps", 0, Results!D55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B56)</f>
+        <v>1</v>
+      </c>
+      <c r="C52" s="19" t="str">
+        <f>IF(Results!C56= "Eps", 0, Results!C56)</f>
+        <v>Skilled</v>
+      </c>
+      <c r="D52" s="17">
+        <f>IF(Results!D56= "Eps", 0, Results!D56)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="17">
+        <f>IF(Results!E56= "Eps", 0, Results!E56)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B57)</f>
+        <v>2</v>
+      </c>
+      <c r="C53" s="19" t="str">
+        <f>IF(Results!C57= "Eps", 0, Results!C57)</f>
+        <v>Unskilled</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B58)</f>
+        <v>2</v>
+      </c>
+      <c r="C54" s="19" t="str">
+        <f>IF(Results!C58= "Eps", 0, Results!C58)</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="D54" s="17">
+        <f>IF(Results!D58= "Eps", 0, Results!D58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B59)</f>
+        <v>2</v>
+      </c>
+      <c r="C55" s="19" t="str">
+        <f>IF(Results!C59= "Eps", 0, Results!C59)</f>
+        <v>Skilled</v>
+      </c>
+      <c r="D55" s="17">
+        <f>IF(Results!D59= "Eps", 0, Results!D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="17">
+        <f>IF(Results!E59= "Eps", 0, Results!E59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B60)</f>
+        <v>3</v>
+      </c>
+      <c r="C56" s="19" t="str">
+        <f>IF(Results!C60= "Eps", 0, Results!C60)</f>
+        <v>Unskilled</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="18"/>
+      <c r="B57" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B61)</f>
+        <v>3</v>
+      </c>
+      <c r="C57" s="19" t="str">
+        <f>IF(Results!C61= "Eps", 0, Results!C61)</f>
+        <v>Semi-skilled</v>
+      </c>
+      <c r="D57" s="17">
+        <f>IF(Results!D61= "Eps", 0, Results!D61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
+      <c r="B58" s="19">
+        <f>_xlfn.NUMBERVALUE(Results!B62)</f>
+        <v>3</v>
+      </c>
+      <c r="C58" s="19" t="str">
+        <f>IF(Results!C62= "Eps", 0, Results!C62)</f>
+        <v>Skilled</v>
+      </c>
+      <c r="D58" s="17">
+        <f>IF(Results!D62= "Eps", 0, Results!D62)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="17">
+        <f>IF(Results!E62= "Eps", 0, Results!E62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="6">
+        <v>25</v>
+      </c>
+      <c r="C67" s="6">
+        <v>20</v>
+      </c>
+      <c r="D67" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="6">
+        <v>10</v>
+      </c>
+      <c r="C68" s="6">
+        <v>5</v>
+      </c>
+      <c r="D68" s="6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A837CA-C904-45DE-A439-E6615CC473B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B07D7E-18F4-447A-9E7C-707594712DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="38">
   <si>
     <t>Unskilled</t>
   </si>
@@ -1117,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393493DB-C15A-47DF-A068-738B05E7E33D}">
   <dimension ref="B1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1177,10 +1177,10 @@
         <v>700</v>
       </c>
       <c r="D5">
-        <v>2030</v>
+        <v>2000</v>
       </c>
       <c r="E5">
-        <v>1585</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -1229,11 +1229,11 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
+      <c r="D10">
+        <v>587.5</v>
+      </c>
+      <c r="E10">
+        <v>461.11111111111109</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1244,10 +1244,10 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>714.375</v>
+        <v>750</v>
       </c>
       <c r="E11">
-        <v>549.16666666666652</v>
+        <v>638.88888888888891</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1709,9 +1709,6 @@
       </c>
       <c r="C56" s="16" t="s">
         <v>2</v>
-      </c>
-      <c r="E56">
-        <v>1000</v>
       </c>
       <c r="F56" t="s">
         <v>23</v>
@@ -1792,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0981435F-E468-423E-B9AB-BE5B908F2544}">
   <dimension ref="A2:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView topLeftCell="G1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1971,11 +1968,11 @@
       </c>
       <c r="D5" s="17">
         <f>IF(Results!D5= "Eps", 0, Results!D5)</f>
-        <v>2030</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="17">
         <f>IF(Results!E5= "Eps", 0, Results!E5)</f>
-        <v>1585</v>
+        <v>1500</v>
       </c>
       <c r="H5" s="19">
         <v>1</v>
@@ -2193,11 +2190,11 @@
       </c>
       <c r="D10" s="17">
         <f>IF(Results!D10= "Eps", 0, Results!D10)</f>
-        <v>0</v>
+        <v>587.5</v>
       </c>
       <c r="E10" s="17">
         <f>IF(Results!E10= "Eps", 0, Results!E10)</f>
-        <v>0</v>
+        <v>461.11111111111109</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>28</v>
@@ -2251,11 +2248,11 @@
       </c>
       <c r="D11" s="17">
         <f>IF(Results!D11= "Eps", 0, Results!D11)</f>
-        <v>714.375</v>
+        <v>750</v>
       </c>
       <c r="E11" s="17">
         <f>IF(Results!E11= "Eps", 0, Results!E11)</f>
-        <v>549.16666666666652</v>
+        <v>638.88888888888891</v>
       </c>
       <c r="H11" s="19">
         <v>0</v>
@@ -2334,7 +2331,7 @@
       </c>
       <c r="J12" s="17">
         <f>VLOOKUP($H12,$B$9:$E$12,3,FALSE)</f>
-        <v>0</v>
+        <v>587.5</v>
       </c>
       <c r="K12" s="17">
         <f>VLOOKUP($H12,$B$15:$E$18,3,FALSE)</f>
@@ -2362,7 +2359,7 @@
       </c>
       <c r="Q12" s="17">
         <f>E52</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R12" s="17">
         <f>$C$67/100* (J11+ M11)</f>
@@ -2373,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="17">
-        <f>T11+J11+M11-L11+O11-P11+Q11-N11-R12-S12</f>
+        <f>T11+J11+M11-L11+O11-P11+0.5* Q11-N11-R12-S12</f>
         <v>1400</v>
       </c>
     </row>
@@ -2383,11 +2380,11 @@
       </c>
       <c r="I13" s="17">
         <f>VLOOKUP($H13,$B$3:$E$6,3,FALSE)</f>
-        <v>2030</v>
+        <v>2000</v>
       </c>
       <c r="J13" s="17">
         <f>VLOOKUP($H13,$B$9:$E$12,3,FALSE)</f>
-        <v>714.375</v>
+        <v>750</v>
       </c>
       <c r="K13" s="17">
         <f>VLOOKUP($H13,$B$15:$E$18,3,FALSE)</f>
@@ -2419,15 +2416,15 @@
       </c>
       <c r="R13" s="17">
         <f t="shared" ref="R13:R14" si="2">$C$67/100* (J12+ M12)</f>
-        <v>0</v>
+        <v>117.5</v>
       </c>
       <c r="S13" s="17">
         <f t="shared" ref="S13:S14" si="3">0.01* $C$68* (I12)</f>
         <v>70</v>
       </c>
       <c r="T13" s="17">
-        <f>T12+J12+M12-L12+O12-P12+Q12-N12-R13-S13</f>
-        <v>2530</v>
+        <f t="shared" ref="T13:T14" si="4">T12+J12+M12-L12+O12-P12+0.5* Q12-N12-R13-S13</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2487,15 +2484,15 @@
       </c>
       <c r="R14" s="17">
         <f t="shared" si="2"/>
-        <v>142.875</v>
+        <v>150</v>
       </c>
       <c r="S14" s="17">
         <f t="shared" si="3"/>
-        <v>101.5</v>
+        <v>100</v>
       </c>
       <c r="T14" s="17">
-        <f>T13+J13+M13-L13+O13-P13+Q13-N13-R14-S14</f>
-        <v>3000</v>
+        <f t="shared" si="4"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -2665,35 +2662,35 @@
         <v>1</v>
       </c>
       <c r="I19" s="17">
-        <f t="shared" ref="I19:I21" si="4">VLOOKUP($H19,$B$3:$E$6,4,FALSE)</f>
+        <f t="shared" ref="I19:I21" si="5">VLOOKUP($H19,$B$3:$E$6,4,FALSE)</f>
         <v>1000</v>
       </c>
       <c r="J19" s="17">
-        <f t="shared" ref="J19:J21" si="5">VLOOKUP($H19,$B$9:$E$12,4,FALSE)</f>
-        <v>0</v>
+        <f t="shared" ref="J19:J21" si="6">VLOOKUP($H19,$B$9:$E$12,4,FALSE)</f>
+        <v>461.11111111111109</v>
       </c>
       <c r="K19" s="17">
-        <f t="shared" ref="K19:K21" si="6">VLOOKUP($H19,$B$15:$E$18,4,FALSE)</f>
+        <f t="shared" ref="K19:K21" si="7">VLOOKUP($H19,$B$15:$E$18,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L19" s="17">
-        <f t="shared" ref="L19:L21" si="7">VLOOKUP($H19,$B$21:$E$24,4,FALSE)</f>
+        <f t="shared" ref="L19:L21" si="8">VLOOKUP($H19,$B$21:$E$24,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M19" s="17">
-        <f t="shared" ref="M19:M21" si="8">VLOOKUP($H19,$B$27:$E$30,4,FALSE)</f>
+        <f t="shared" ref="M19:M21" si="9">VLOOKUP($H19,$B$27:$E$30,4,FALSE)</f>
         <v>150</v>
       </c>
       <c r="N19" s="17">
-        <f t="shared" ref="N19:N21" si="9">N12</f>
+        <f t="shared" ref="N19:N21" si="10">N12</f>
         <v>0</v>
       </c>
       <c r="O19" s="17">
-        <f t="shared" ref="O19:O21" si="10">Q12</f>
-        <v>1000</v>
+        <f t="shared" ref="O19:O21" si="11">Q12</f>
+        <v>0</v>
       </c>
       <c r="P19" s="17">
-        <f t="shared" ref="P19:P21" si="11">O5</f>
+        <f t="shared" ref="P19:P21" si="12">O5</f>
         <v>0</v>
       </c>
       <c r="Q19" s="17">
@@ -2729,48 +2726,48 @@
         <v>2</v>
       </c>
       <c r="I20" s="17">
-        <f t="shared" si="4"/>
-        <v>1585</v>
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
       <c r="J20" s="17">
-        <f t="shared" si="5"/>
-        <v>549.16666666666652</v>
+        <f t="shared" si="6"/>
+        <v>638.88888888888891</v>
       </c>
       <c r="K20" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L20" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M20" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N20" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O20" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P20" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q20" s="17">
-        <f t="shared" ref="Q20:Q21" si="12">$D$67/100* (J19+ M19)</f>
-        <v>15</v>
+        <f t="shared" ref="Q20:Q21" si="13">$D$67/100* (J19+ M19)</f>
+        <v>61.111111111111114</v>
       </c>
       <c r="R20" s="17">
-        <f t="shared" ref="R20:R21" si="13">0.01* $D$68* (I19)</f>
+        <f t="shared" ref="R20:R21" si="14">0.01* $D$68* (I19)</f>
         <v>50</v>
       </c>
       <c r="S20" s="17">
-        <f t="shared" ref="S20:S21" si="14">S19+J19+M19-L19-N19+O19+P19-Q20-R20</f>
-        <v>2085</v>
+        <f t="shared" ref="S20:S21" si="15">S19+J19+M19-L19-N19+O19+P19-Q20-R20</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -2797,48 +2794,48 @@
         <v>3</v>
       </c>
       <c r="I21" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="J21" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K21" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L21" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M21" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N21" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O21" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P21" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q21" s="17">
-        <f t="shared" si="12"/>
-        <v>54.916666666666657</v>
+        <f t="shared" si="13"/>
+        <v>63.888888888888893</v>
       </c>
       <c r="R21" s="17">
-        <f t="shared" si="13"/>
-        <v>79.25</v>
+        <f t="shared" si="14"/>
+        <v>75</v>
       </c>
       <c r="S21" s="17">
-        <f t="shared" si="14"/>
-        <v>2500</v>
+        <f t="shared" si="15"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -3285,7 +3282,7 @@
       </c>
       <c r="E52" s="17">
         <f>IF(Results!E56= "Eps", 0, Results!E56)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B07D7E-18F4-447A-9E7C-707594712DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709645E0-C51E-4F7B-ADDF-C4582802EBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="O" sheetId="4" r:id="rId5"/>
     <sheet name="S" sheetId="5" r:id="rId6"/>
     <sheet name="Results" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
+    <sheet name="Analytic Results" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="39">
   <si>
     <t>Unskilled</t>
   </si>
@@ -103,49 +103,52 @@
     <t>0</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>from\to</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Demote</t>
+  </si>
+  <si>
+    <t>year\variable</t>
+  </si>
+  <si>
+    <t>Churn New</t>
+  </si>
+  <si>
+    <t>Churn Old</t>
+  </si>
+  <si>
+    <t>W Valid</t>
+  </si>
+  <si>
+    <t>D(hl)</t>
+  </si>
+  <si>
+    <t>D(hm)</t>
+  </si>
+  <si>
+    <t>D(ml)</t>
+  </si>
+  <si>
+    <t>Train(lm)</t>
+  </si>
+  <si>
+    <t>Train(mh)</t>
+  </si>
+  <si>
+    <t>W limit</t>
+  </si>
+  <si>
     <t>Eps</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>from\to</t>
-  </si>
-  <si>
-    <t>Train</t>
-  </si>
-  <si>
-    <t>Demote</t>
-  </si>
-  <si>
-    <t>year\variable</t>
-  </si>
-  <si>
-    <t>Churn New</t>
-  </si>
-  <si>
-    <t>Churn Old</t>
-  </si>
-  <si>
-    <t>W Valid</t>
-  </si>
-  <si>
-    <t>Train(l)</t>
-  </si>
-  <si>
-    <t>D(hl)</t>
-  </si>
-  <si>
-    <t>D(hm)</t>
-  </si>
-  <si>
-    <t>D(ml)</t>
-  </si>
-  <si>
-    <t>Train(lm)</t>
-  </si>
-  <si>
-    <t>Train(mh)</t>
+    <t>SemiSkilled</t>
   </si>
 </sst>
 </file>
@@ -328,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,6 +395,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,7 +726,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,9 +1121,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393493DB-C15A-47DF-A068-738B05E7E33D}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="B1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1145,14 +1154,14 @@
       <c r="B3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3">
+        <v>1500</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -1160,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>1695</v>
       </c>
       <c r="D4">
         <v>1400</v>
@@ -1174,7 +1183,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>700</v>
+        <v>1360</v>
       </c>
       <c r="D5">
         <v>2000</v>
@@ -1188,13 +1197,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>630</v>
+        <v>1230</v>
       </c>
       <c r="D6">
-        <v>2500</v>
+        <v>2540</v>
       </c>
       <c r="E6">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1212,28 +1221,28 @@
       <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>1333.3333333333333</v>
-      </c>
-      <c r="D9">
-        <v>1750</v>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
       </c>
       <c r="E9">
-        <v>961.11111111111109</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
+      <c r="C10">
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>587.5</v>
+        <v>600.00000000000011</v>
       </c>
       <c r="E10">
-        <v>461.11111111111109</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1241,13 +1250,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="E11">
-        <v>638.88888888888891</v>
+        <v>500.0000000000004</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1255,13 +1264,13 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -1280,13 +1289,13 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -1294,13 +1303,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -1308,13 +1317,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -1322,13 +1331,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -1347,13 +1356,13 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -1361,13 +1370,13 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -1375,13 +1384,13 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
@@ -1389,13 +1398,13 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
@@ -1413,14 +1422,14 @@
       <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C27" t="s">
-        <v>23</v>
+      <c r="C27">
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27">
-        <v>150</v>
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -1428,27 +1437,27 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E28">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C29" t="s">
-        <v>23</v>
+      <c r="C29">
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
@@ -1456,13 +1465,13 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
@@ -1484,7 +1493,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="E33">
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
@@ -1495,7 +1507,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="F34">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
@@ -1506,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
@@ -1517,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E36">
         <v>200</v>
@@ -1531,7 +1546,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
@@ -1544,7 +1562,7 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
@@ -1555,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
@@ -1567,7 +1585,7 @@
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F40" s="16"/>
     </row>
@@ -1579,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
@@ -1590,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
@@ -1601,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
@@ -1612,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
@@ -1656,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
@@ -1666,8 +1684,11 @@
       <c r="C52" s="16" t="s">
         <v>1</v>
       </c>
+      <c r="D52">
+        <v>184</v>
+      </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
@@ -1678,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
@@ -1689,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
@@ -1700,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
@@ -1711,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
@@ -1722,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
@@ -1733,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
@@ -1744,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
@@ -1755,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
@@ -1766,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
@@ -1777,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1787,10 +1808,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0981435F-E468-423E-B9AB-BE5B908F2544}">
-  <dimension ref="A2:T68"/>
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A2:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,20 +1823,20 @@
     <col min="2" max="2" width="9" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.21875" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="17"/>
-    <col min="8" max="8" width="12.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="17" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="17" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="17" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="17"/>
+    <col min="7" max="7" width="12.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="17" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1831,7 +1855,7 @@
         <f>Results!E2</f>
         <v>Skilled</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="21" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1845,42 +1869,45 @@
       </c>
       <c r="C3" s="17">
         <f>IF(Results!C3= "Eps", 0, Results!C3)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D3" s="17">
         <f>IF(Results!D3= "Eps", 0, Results!D3)</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E3" s="17">
         <f>IF(Results!E3= "Eps", 0, Results!E3)</f>
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O3" s="22" t="s">
         <v>33</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="22" t="s">
         <v>29</v>
@@ -1889,7 +1916,7 @@
         <v>30</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -1900,7 +1927,7 @@
       </c>
       <c r="C4" s="17">
         <f>IF(Results!C4= "Eps", 0, Results!C4)</f>
-        <v>1000</v>
+        <v>1695</v>
       </c>
       <c r="D4" s="17">
         <f>IF(Results!D4= "Eps", 0, Results!D4)</f>
@@ -1910,50 +1937,54 @@
         <f>IF(Results!E4= "Eps", 0, Results!E4)</f>
         <v>1000</v>
       </c>
-      <c r="H4" s="19">
-        <v>0</v>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <f>VLOOKUP($G4,$B$3:$E$6,2,FALSE)</f>
+        <v>2000</v>
       </c>
       <c r="I4" s="17">
-        <f>VLOOKUP($H4,$B$3:$E$6,2,FALSE)</f>
+        <f>VLOOKUP($G4,$B$9:$E$12,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J4" s="17">
-        <f>VLOOKUP($H4,$B$9:$E$12,2,FALSE)</f>
-        <v>1333.3333333333333</v>
+        <f>VLOOKUP($G4,$B$15:$E$18,2,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K4" s="17">
-        <f>VLOOKUP($H4,$B$15:$E$18,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="17">
-        <f>VLOOKUP($H4,$B$21:$E$24,2,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP($G4,$B$21:$E$24,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="23">
+        <f>VLOOKUP($G4,$B$27:$E$30,2,FALSE)</f>
+        <v>4</v>
       </c>
       <c r="M4" s="17">
-        <f>VLOOKUP($H4,$B$27:$E$30,2,FALSE)</f>
-        <v>0</v>
+        <f>E33</f>
+        <v>200</v>
       </c>
       <c r="N4" s="17">
-        <f>E33</f>
+        <f>D49</f>
         <v>0</v>
       </c>
       <c r="O4" s="17">
-        <f>D49</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="17">
         <f>D48</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>0</v>
-      </c>
-      <c r="R4" s="17">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="P4" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>0</v>
+      </c>
+      <c r="R4" s="23">
+        <f>H4</f>
+        <v>2000</v>
       </c>
       <c r="S4" s="17">
-        <f>I4</f>
-        <v>0</v>
+        <f>B71</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -1964,7 +1995,7 @@
       </c>
       <c r="C5" s="17">
         <f>IF(Results!C5= "Eps", 0, Results!C5)</f>
-        <v>700</v>
+        <v>1360</v>
       </c>
       <c r="D5" s="17">
         <f>IF(Results!D5= "Eps", 0, Results!D5)</f>
@@ -1974,51 +2005,55 @@
         <f>IF(Results!E5= "Eps", 0, Results!E5)</f>
         <v>1500</v>
       </c>
-      <c r="H5" s="19">
-        <v>1</v>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23">
+        <f>VLOOKUP($G5,$B$3:$E$6,2,FALSE)</f>
+        <v>1695</v>
       </c>
       <c r="I5" s="17">
-        <f>VLOOKUP($H5,$B$3:$E$6,2,FALSE)</f>
-        <v>1000</v>
+        <f>VLOOKUP($G5,$B$9:$E$12,2,FALSE)</f>
+        <v>46</v>
       </c>
       <c r="J5" s="17">
-        <f>VLOOKUP($H5,$B$9:$E$12,2,FALSE)</f>
+        <f>VLOOKUP($G5,$B$15:$E$18,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K5" s="17">
-        <f>VLOOKUP($H5,$B$15:$E$18,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="17">
-        <f>VLOOKUP($H5,$B$21:$E$24,2,FALSE)</f>
+        <f>VLOOKUP($G5,$B$21:$E$24,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="23">
+        <f>VLOOKUP($G5,$B$27:$E$30,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M5" s="17">
-        <f>VLOOKUP($H5,$B$27:$E$30,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="17">
         <f>E36</f>
         <v>200</v>
       </c>
+      <c r="N5" s="17">
+        <f>D52</f>
+        <v>0</v>
+      </c>
       <c r="O5" s="17">
-        <f>D52</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="17">
         <f>D51</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="17">
-        <f>$B$67/100* (J4+ M4)</f>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="R5" s="17">
-        <f>0.01* $B$68* (I4)</f>
-        <v>0</v>
+      <c r="P5" s="23">
+        <f>$B$67/100* (I4+ L4)</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="23">
+        <f>0.01* $B$68* (H4)</f>
+        <v>200</v>
+      </c>
+      <c r="R5" s="23">
+        <f>R4+I4+L4-K4-M4+0.5* N4+0.5* O4-P5-Q5</f>
+        <v>1695</v>
       </c>
       <c r="S5" s="17">
-        <f>S4+J4+M4-L4-N4+O4+P4-Q5-R5</f>
+        <f>B72</f>
         <v>1000</v>
       </c>
     </row>
@@ -2030,111 +2065,119 @@
       </c>
       <c r="C6" s="17">
         <f>IF(Results!C6= "Eps", 0, Results!C6)</f>
-        <v>630</v>
+        <v>1230</v>
       </c>
       <c r="D6" s="17">
         <f>IF(Results!D6= "Eps", 0, Results!D6)</f>
-        <v>2500</v>
+        <v>2540</v>
       </c>
       <c r="E6" s="17">
         <f>IF(Results!E6= "Eps", 0, Results!E6)</f>
-        <v>2000</v>
-      </c>
-      <c r="H6" s="19">
-        <v>2</v>
+        <v>2001</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2</v>
+      </c>
+      <c r="H6" s="23">
+        <f>VLOOKUP($G6,$B$3:$E$6,2,FALSE)</f>
+        <v>1360</v>
       </c>
       <c r="I6" s="17">
-        <f>VLOOKUP($H6,$B$3:$E$6,2,FALSE)</f>
-        <v>700</v>
+        <f>VLOOKUP($G6,$B$9:$E$12,2,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="J6" s="17">
-        <f>VLOOKUP($H6,$B$9:$E$12,2,FALSE)</f>
+        <f>VLOOKUP($G6,$B$15:$E$18,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K6" s="17">
-        <f>VLOOKUP($H6,$B$15:$E$18,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="17">
-        <f>VLOOKUP($H6,$B$21:$E$24,2,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP($G6,$B$21:$E$24,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="23">
+        <f>VLOOKUP($G6,$B$27:$E$30,2,FALSE)</f>
+        <v>8</v>
       </c>
       <c r="M6" s="17">
-        <f>VLOOKUP($H6,$B$27:$E$30,2,FALSE)</f>
+        <f>E39</f>
         <v>0</v>
       </c>
       <c r="N6" s="17">
-        <f>E39</f>
+        <f>D55</f>
         <v>0</v>
       </c>
       <c r="O6" s="17">
-        <f>D55</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="17">
         <f>D54</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="17">
-        <f>$B$67/100* (J5+ M5)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="17">
-        <f>0.01* $B$68* (I5)</f>
-        <v>100</v>
+      <c r="P6" s="23">
+        <f>$B$67/100* (I5+ L5)</f>
+        <v>11.5</v>
+      </c>
+      <c r="Q6" s="23">
+        <f>0.01* $B$68* (H5)</f>
+        <v>169.5</v>
+      </c>
+      <c r="R6" s="23">
+        <f t="shared" ref="R6:R7" si="0">R5+I5+L5-K5-M5+0.5* N5+0.5* O5-P6-Q6</f>
+        <v>1360</v>
       </c>
       <c r="S6" s="17">
-        <f>S5+J5+M5-L5-N5+O5+P5-Q6-R6</f>
-        <v>700</v>
+        <f>B73</f>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H7" s="19">
+      <c r="G7" s="19">
         <v>3</v>
       </c>
+      <c r="H7" s="23">
+        <f>VLOOKUP($G7,$B$3:$E$6,2,FALSE)</f>
+        <v>1230</v>
+      </c>
       <c r="I7" s="17">
-        <f>VLOOKUP($H7,$B$3:$E$6,2,FALSE)</f>
-        <v>630</v>
+        <f>VLOOKUP($G7,$B$9:$E$12,2,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="J7" s="17">
-        <f>VLOOKUP($H7,$B$9:$E$12,2,FALSE)</f>
+        <f>VLOOKUP($G7,$B$15:$E$18,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K7" s="17">
-        <f>VLOOKUP($H7,$B$15:$E$18,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="17">
-        <f>VLOOKUP($H7,$B$21:$E$24,2,FALSE)</f>
+        <f>VLOOKUP($G7,$B$21:$E$24,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="23">
+        <f>VLOOKUP($G7,$B$27:$E$30,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M7" s="17">
-        <f>VLOOKUP($H7,$B$27:$E$30,2,FALSE)</f>
+        <f>E42</f>
         <v>0</v>
       </c>
       <c r="N7" s="17">
-        <f>E42</f>
+        <f>D58</f>
         <v>0</v>
       </c>
       <c r="O7" s="17">
-        <f>D58</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="17">
         <f>D57</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="17">
-        <f t="shared" ref="Q7" si="0">$B$67/100* (J6+ M6)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="17">
-        <f>0.01* $B$68* (I6)</f>
-        <v>70</v>
+      <c r="P7" s="23">
+        <f t="shared" ref="P7" si="1">$B$67/100* (I6+ L6)</f>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="23">
+        <f>0.01* $B$68* (H6)</f>
+        <v>136</v>
+      </c>
+      <c r="R7" s="23">
+        <f t="shared" si="0"/>
+        <v>1230</v>
       </c>
       <c r="S7" s="17">
-        <f>S6+J6+M6-L6-N6+O6+P6-Q7-R7</f>
-        <v>630</v>
+        <f>B74</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2164,18 +2207,18 @@
       </c>
       <c r="C9" s="17">
         <f>IF(Results!C9= "Eps", 0, Results!C9)</f>
-        <v>1333.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="D9" s="17">
         <f>IF(Results!D9= "Eps", 0, Results!D9)</f>
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="E9" s="17">
         <f>IF(Results!E9= "Eps", 0, Results!E9)</f>
-        <v>961.11111111111109</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2186,45 +2229,48 @@
       </c>
       <c r="C10" s="17">
         <f>IF(Results!C10= "Eps", 0, Results!C10)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D10" s="17">
         <f>IF(Results!D10= "Eps", 0, Results!D10)</f>
-        <v>587.5</v>
+        <v>600.00000000000011</v>
       </c>
       <c r="E10" s="17">
         <f>IF(Results!E10= "Eps", 0, Results!E10)</f>
-        <v>461.11111111111109</v>
+        <v>500</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="H10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>34</v>
       </c>
       <c r="R10" s="22" t="s">
         <v>29</v>
@@ -2233,7 +2279,7 @@
         <v>30</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -2248,60 +2294,64 @@
       </c>
       <c r="D11" s="17">
         <f>IF(Results!D11= "Eps", 0, Results!D11)</f>
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="E11" s="17">
         <f>IF(Results!E11= "Eps", 0, Results!E11)</f>
-        <v>638.88888888888891</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0</v>
+        <v>500.0000000000004</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <f>VLOOKUP($G11,$B$3:$E$6,3,FALSE)</f>
+        <v>1500</v>
       </c>
       <c r="I11" s="17">
-        <f>VLOOKUP($H11,$B$3:$E$6,3,FALSE)</f>
+        <f>VLOOKUP($G11,$B$9:$E$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J11" s="17">
-        <f>VLOOKUP($H11,$B$9:$E$12,3,FALSE)</f>
-        <v>1750</v>
+        <f>VLOOKUP($G11,$B$15:$E$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K11" s="17">
-        <f>VLOOKUP($H11,$B$15:$E$18,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="17">
-        <f>VLOOKUP($H11,$B$21:$E$24,3,FALSE)</f>
+        <f>VLOOKUP($G11,$B$21:$E$24,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
+        <f>VLOOKUP($G11,$B$27:$E$30,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M11" s="17">
-        <f>VLOOKUP($H11,$B$27:$E$30,3,FALSE)</f>
-        <v>0</v>
+        <f>F34</f>
+        <v>41</v>
       </c>
       <c r="N11" s="17">
-        <f>F34</f>
-        <v>0</v>
+        <f>M4</f>
+        <v>200</v>
       </c>
       <c r="O11" s="17">
-        <f>N4</f>
-        <v>0</v>
+        <f>D48</f>
+        <v>184</v>
       </c>
       <c r="P11" s="17">
-        <f>D48</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="17">
         <f>E49</f>
         <v>0</v>
       </c>
-      <c r="R11" s="17">
+      <c r="Q11" s="23">
+        <v>0</v>
+      </c>
+      <c r="R11" s="23">
         <v>0</v>
       </c>
       <c r="S11" s="17">
-        <v>0</v>
+        <f>H11</f>
+        <v>1500</v>
       </c>
       <c r="T11" s="17">
-        <f>I11</f>
-        <v>0</v>
+        <f>C71</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -2322,108 +2372,116 @@
         <f>IF(Results!E12= "Eps", 0, Results!E12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="19">
-        <v>1</v>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
+        <f>VLOOKUP($G12,$B$3:$E$6,3,FALSE)</f>
+        <v>1400</v>
       </c>
       <c r="I12" s="17">
-        <f>VLOOKUP($H12,$B$3:$E$6,3,FALSE)</f>
+        <f>VLOOKUP($G12,$B$9:$E$12,3,FALSE)</f>
+        <v>600.00000000000011</v>
+      </c>
+      <c r="J12" s="17">
+        <f>VLOOKUP($G12,$B$15:$E$18,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <f>VLOOKUP($G12,$B$21:$E$24,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="23">
+        <f>VLOOKUP($G12,$B$27:$E$30,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <f>F37</f>
+        <v>10</v>
+      </c>
+      <c r="N12" s="17">
+        <f t="shared" ref="N12:N14" si="2">M5</f>
+        <v>200</v>
+      </c>
+      <c r="O12" s="17">
+        <f>D51</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="17">
+        <f>E52</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="23">
+        <f>$C$67/100* (I11+ L11)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="23">
+        <f>0.01* $C$68* (H11)</f>
+        <v>75</v>
+      </c>
+      <c r="S12" s="17">
+        <f>S11+I11+L11-K11+N11-O11+0.5* P11-M11-Q12-R12</f>
         <v>1400</v>
       </c>
-      <c r="J12" s="17">
-        <f>VLOOKUP($H12,$B$9:$E$12,3,FALSE)</f>
-        <v>587.5</v>
-      </c>
-      <c r="K12" s="17">
-        <f>VLOOKUP($H12,$B$15:$E$18,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="17">
-        <f>VLOOKUP($H12,$B$21:$E$24,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="17">
-        <f>VLOOKUP($H12,$B$27:$E$30,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="17">
-        <f>F37</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="17">
-        <f t="shared" ref="O12:O14" si="1">N5</f>
-        <v>200</v>
-      </c>
-      <c r="P12" s="17">
-        <f>D51</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="17">
-        <f>E52</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="17">
-        <f>$C$67/100* (J11+ M11)</f>
-        <v>350</v>
-      </c>
-      <c r="S12" s="17">
-        <f>0.01* $C$68* (I11)</f>
-        <v>0</v>
-      </c>
       <c r="T12" s="17">
-        <f>T11+J11+M11-L11+O11-P11+0.5* Q11-N11-R12-S12</f>
+        <f>C72</f>
         <v>1400</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H13" s="19">
-        <v>2</v>
+      <c r="G13" s="19">
+        <v>2</v>
+      </c>
+      <c r="H13" s="17">
+        <f>VLOOKUP($G13,$B$3:$E$6,3,FALSE)</f>
+        <v>2000</v>
       </c>
       <c r="I13" s="17">
-        <f>VLOOKUP($H13,$B$3:$E$6,3,FALSE)</f>
+        <f>VLOOKUP($G13,$B$9:$E$12,3,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="J13" s="17">
+        <f>VLOOKUP($G13,$B$15:$E$18,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <f>VLOOKUP($G13,$B$21:$E$24,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <f>VLOOKUP($G13,$B$27:$E$30,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <f>F40</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="17">
+        <f>D54</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
+        <f>E55</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="23">
+        <f t="shared" ref="Q13:Q14" si="3">$C$67/100* (I12+ L12)</f>
+        <v>120.00000000000003</v>
+      </c>
+      <c r="R13" s="23">
+        <f t="shared" ref="R13:R14" si="4">0.01* $C$68* (H12)</f>
+        <v>70</v>
+      </c>
+      <c r="S13" s="17">
+        <f t="shared" ref="S13:S14" si="5">S12+I12+L12-K12+N12-O12+0.5* P12-M12-Q13-R13</f>
         <v>2000</v>
       </c>
-      <c r="J13" s="17">
-        <f>VLOOKUP($H13,$B$9:$E$12,3,FALSE)</f>
-        <v>750</v>
-      </c>
-      <c r="K13" s="17">
-        <f>VLOOKUP($H13,$B$15:$E$18,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="17">
-        <f>VLOOKUP($H13,$B$21:$E$24,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="17">
-        <f>VLOOKUP($H13,$B$27:$E$30,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="17">
-        <f>F40</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="17">
-        <f>D54</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="17">
-        <f>E55</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="17">
-        <f t="shared" ref="R13:R14" si="2">$C$67/100* (J12+ M12)</f>
-        <v>117.5</v>
-      </c>
-      <c r="S13" s="17">
-        <f t="shared" ref="S13:S14" si="3">0.01* $C$68* (I12)</f>
-        <v>70</v>
-      </c>
       <c r="T13" s="17">
-        <f t="shared" ref="T13:T14" si="4">T12+J12+M12-L12+O12-P12+0.5* Q12-N12-R13-S13</f>
+        <f>C73</f>
         <v>2000</v>
       </c>
     </row>
@@ -2443,55 +2501,59 @@
         <f>IF(Results!E14= "Eps", 0, Results!E14)</f>
         <v>Skilled</v>
       </c>
-      <c r="H14" s="19">
+      <c r="G14" s="19">
         <v>3</v>
       </c>
+      <c r="H14" s="17">
+        <f>VLOOKUP($G14,$B$3:$E$6,3,FALSE)</f>
+        <v>2540</v>
+      </c>
       <c r="I14" s="17">
-        <f>VLOOKUP($H14,$B$3:$E$6,3,FALSE)</f>
-        <v>2500</v>
+        <f>VLOOKUP($G14,$B$9:$E$12,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="J14" s="17">
-        <f>VLOOKUP($H14,$B$9:$E$12,3,FALSE)</f>
+        <f>VLOOKUP($G14,$B$15:$E$18,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K14" s="17">
-        <f>VLOOKUP($H14,$B$15:$E$18,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="17">
-        <f>VLOOKUP($H14,$B$21:$E$24,3,FALSE)</f>
+        <f>VLOOKUP($G14,$B$21:$E$24,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="23">
+        <f>VLOOKUP($G14,$B$27:$E$30,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M14" s="17">
-        <f>VLOOKUP($H14,$B$27:$E$30,3,FALSE)</f>
+        <f>F43</f>
         <v>0</v>
       </c>
       <c r="N14" s="17">
-        <f>F43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O14" s="17">
-        <f t="shared" si="1"/>
+        <f>D57</f>
         <v>0</v>
       </c>
       <c r="P14" s="17">
-        <f>D57</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="17">
         <f>E58</f>
         <v>0</v>
       </c>
-      <c r="R14" s="17">
-        <f t="shared" si="2"/>
-        <v>150</v>
+      <c r="Q14" s="23">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="R14" s="23">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="S14" s="17">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>2540</v>
       </c>
       <c r="T14" s="17">
-        <f t="shared" si="4"/>
+        <f>C74</f>
         <v>2500</v>
       </c>
     </row>
@@ -2534,8 +2596,8 @@
         <f>IF(Results!E16= "Eps", 0, Results!E16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>0</v>
+      <c r="G16" s="21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2556,32 +2618,35 @@
         <f>IF(Results!E17= "Eps", 0, Results!E17)</f>
         <v>0</v>
       </c>
+      <c r="G17" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="H17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="Q17" s="22" t="s">
         <v>29</v>
@@ -2590,7 +2655,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -2611,98 +2676,106 @@
         <f>IF(Results!E18= "Eps", 0, Results!E18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="19">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17">
-        <f>VLOOKUP($H18,$B$3:$E$6,4,FALSE)</f>
-        <v>0</v>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <f>VLOOKUP($G18,$B$3:$E$6,4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="I18" s="23">
+        <f>VLOOKUP($G18,$B$9:$E$12,4,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="J18" s="17">
-        <f>VLOOKUP($H18,$B$9:$E$12,4,FALSE)</f>
-        <v>961.11111111111109</v>
+        <f>VLOOKUP($G18,$B$15:$E$18,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K18" s="17">
-        <f>VLOOKUP($H18,$B$15:$E$18,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="17">
-        <f>VLOOKUP($H18,$B$21:$E$24,4,FALSE)</f>
+        <f>VLOOKUP($G18,$B$21:$E$24,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="23">
+        <f>VLOOKUP($G18,$B$27:$E$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M18" s="17">
-        <f>VLOOKUP($H18,$B$27:$E$30,4,FALSE)</f>
-        <v>150</v>
+        <f>M11</f>
+        <v>41</v>
       </c>
       <c r="N18" s="17">
-        <f>N11</f>
+        <f>P11</f>
         <v>0</v>
       </c>
       <c r="O18" s="17">
-        <f>Q11</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="17">
-        <f>O4</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>0</v>
-      </c>
-      <c r="R18" s="17">
-        <v>0</v>
+        <f>N4</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>0</v>
+      </c>
+      <c r="R18" s="23">
+        <f>H18</f>
+        <v>1000</v>
       </c>
       <c r="S18" s="17">
-        <f>I18</f>
-        <v>0</v>
+        <f>D71</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="17">
-        <f t="shared" ref="I19:I21" si="5">VLOOKUP($H19,$B$3:$E$6,4,FALSE)</f>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17">
+        <f>VLOOKUP($G19,$B$3:$E$6,4,FALSE)</f>
         <v>1000</v>
       </c>
+      <c r="I19" s="23">
+        <f>VLOOKUP($G19,$B$9:$E$12,4,FALSE)</f>
+        <v>500</v>
+      </c>
       <c r="J19" s="17">
-        <f t="shared" ref="J19:J21" si="6">VLOOKUP($H19,$B$9:$E$12,4,FALSE)</f>
-        <v>461.11111111111109</v>
+        <f>VLOOKUP($G19,$B$15:$E$18,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K19" s="17">
-        <f t="shared" ref="K19:K21" si="7">VLOOKUP($H19,$B$15:$E$18,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="17">
-        <f t="shared" ref="L19:L21" si="8">VLOOKUP($H19,$B$21:$E$24,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP($G19,$B$21:$E$24,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="23">
+        <f>VLOOKUP($G19,$B$27:$E$30,4,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="M19" s="17">
-        <f t="shared" ref="M19:M21" si="9">VLOOKUP($H19,$B$27:$E$30,4,FALSE)</f>
-        <v>150</v>
+        <f t="shared" ref="M19:M21" si="6">M12</f>
+        <v>10</v>
       </c>
       <c r="N19" s="17">
-        <f t="shared" ref="N19:N21" si="10">N12</f>
+        <f t="shared" ref="N19:N21" si="7">P12</f>
         <v>0</v>
       </c>
       <c r="O19" s="17">
-        <f t="shared" ref="O19:O21" si="11">Q12</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="17">
-        <f t="shared" ref="P19:P21" si="12">O5</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="17">
-        <f>$D$67/100* (J18+ M18)</f>
-        <v>111.11111111111111</v>
-      </c>
-      <c r="R19" s="17">
-        <f>0.01* $D$68* (I18)</f>
-        <v>0</v>
+        <f t="shared" ref="O19:O21" si="8">N5</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="23">
+        <f>$D$67/100* (I18+ L18)</f>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="23">
+        <f>0.01* $D$68* (H18)</f>
+        <v>50</v>
+      </c>
+      <c r="R19" s="23">
+        <f>R18+I18+L18-K18+M18-N18-O18-P19-Q19</f>
+        <v>1000</v>
       </c>
       <c r="S19" s="17">
-        <f>S18+J18+M18-L18-N18+O18+P18-Q19-R19</f>
+        <f>D72</f>
         <v>1000</v>
       </c>
     </row>
@@ -2722,51 +2795,55 @@
         <f>IF(Results!E20= "Eps", 0, Results!E20)</f>
         <v>Skilled</v>
       </c>
-      <c r="H20" s="19">
-        <v>2</v>
-      </c>
-      <c r="I20" s="17">
-        <f t="shared" si="5"/>
+      <c r="G20" s="19">
+        <v>2</v>
+      </c>
+      <c r="H20" s="17">
+        <f>VLOOKUP($G20,$B$3:$E$6,4,FALSE)</f>
         <v>1500</v>
       </c>
+      <c r="I20" s="23">
+        <f>VLOOKUP($G20,$B$9:$E$12,4,FALSE)</f>
+        <v>500.0000000000004</v>
+      </c>
       <c r="J20" s="17">
+        <f>VLOOKUP($G20,$B$15:$E$18,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <f>VLOOKUP($G20,$B$21:$E$24,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="23">
+        <f>VLOOKUP($G20,$B$27:$E$30,4,FALSE)</f>
+        <v>140</v>
+      </c>
+      <c r="M20" s="17">
         <f t="shared" si="6"/>
-        <v>638.88888888888891</v>
-      </c>
-      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="N20" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L20" s="17">
+      <c r="O20" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M20" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="17">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="17">
-        <f t="shared" ref="Q20:Q21" si="13">$D$67/100* (J19+ M19)</f>
-        <v>61.111111111111114</v>
-      </c>
-      <c r="R20" s="17">
-        <f t="shared" ref="R20:R21" si="14">0.01* $D$68* (I19)</f>
+      <c r="P20" s="23">
+        <f t="shared" ref="P20:P21" si="9">$D$67/100* (I19+ L19)</f>
+        <v>60</v>
+      </c>
+      <c r="Q20" s="23">
+        <f t="shared" ref="Q20:Q21" si="10">0.01* $D$68* (H19)</f>
         <v>50</v>
       </c>
+      <c r="R20" s="23">
+        <f t="shared" ref="R20:R21" si="11">R19+I19+L19-K19+M19-N19-O19-P20-Q20</f>
+        <v>1500</v>
+      </c>
       <c r="S20" s="17">
-        <f t="shared" ref="S20:S21" si="15">S19+J19+M19-L19-N19+O19+P19-Q20-R20</f>
+        <f>D73</f>
         <v>1500</v>
       </c>
     </row>
@@ -2790,51 +2867,55 @@
         <f>IF(Results!E21= "Eps", 0, Results!E21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="19">
+      <c r="G21" s="19">
         <v>3</v>
       </c>
-      <c r="I21" s="17">
-        <f t="shared" si="5"/>
-        <v>2000</v>
+      <c r="H21" s="17">
+        <f>VLOOKUP($G21,$B$3:$E$6,4,FALSE)</f>
+        <v>2001</v>
+      </c>
+      <c r="I21" s="23">
+        <f>VLOOKUP($G21,$B$9:$E$12,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="J21" s="17">
+        <f>VLOOKUP($G21,$B$15:$E$18,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
+        <f>VLOOKUP($G21,$B$21:$E$24,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="23">
+        <f>VLOOKUP($G21,$B$27:$E$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K21" s="17">
+      <c r="N21" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L21" s="17">
+      <c r="O21" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M21" s="17">
+      <c r="P21" s="23">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="17">
+        <v>64.000000000000043</v>
+      </c>
+      <c r="Q21" s="23">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="17">
+        <v>75</v>
+      </c>
+      <c r="R21" s="23">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="17">
-        <f t="shared" si="13"/>
-        <v>63.888888888888893</v>
-      </c>
-      <c r="R21" s="17">
-        <f t="shared" si="14"/>
-        <v>75</v>
+        <v>2001.0000000000005</v>
       </c>
       <c r="S21" s="17">
-        <f t="shared" si="15"/>
+        <f>D74</f>
         <v>2000</v>
       </c>
     </row>
@@ -2922,7 +3003,7 @@
       </c>
       <c r="C27" s="17">
         <f>IF(Results!C27= "Eps", 0, Results!C27)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" s="17">
         <f>IF(Results!D27= "Eps", 0, Results!D27)</f>
@@ -2930,7 +3011,7 @@
       </c>
       <c r="E27" s="17">
         <f>IF(Results!E27= "Eps", 0, Results!E27)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -2949,7 +3030,7 @@
       </c>
       <c r="E28" s="17">
         <f>IF(Results!E28= "Eps", 0, Results!E28)</f>
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -2960,7 +3041,7 @@
       </c>
       <c r="C29" s="17">
         <f>IF(Results!C29= "Eps", 0, Results!C29)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D29" s="17">
         <f>IF(Results!D29= "Eps", 0, Results!D29)</f>
@@ -2968,7 +3049,7 @@
       </c>
       <c r="E29" s="17">
         <f>IF(Results!E29= "Eps", 0, Results!E29)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -2992,10 +3073,10 @@
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>25</v>
       </c>
       <c r="D32" s="20" t="str">
         <f>IF(Results!D32= "Eps", 0, Results!D32)</f>
@@ -3012,7 +3093,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="19">
         <f>_xlfn.NUMBERVALUE(Results!B33)</f>
@@ -3024,7 +3105,7 @@
       </c>
       <c r="E33" s="17">
         <f>IF(Results!E33= "Eps", 0, Results!E33)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -3039,7 +3120,7 @@
       </c>
       <c r="F34" s="17">
         <f>IF(Results!F34= "Eps", 0, Results!F34)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -3080,7 +3161,7 @@
       </c>
       <c r="F37" s="17">
         <f>IF(Results!F37= "Eps", 0, Results!F37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -3178,7 +3259,7 @@
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C46" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" s="20" t="str">
         <f>IF(Results!D50= "Eps", 0, Results!D50)</f>
@@ -3195,7 +3276,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="19">
         <f>_xlfn.NUMBERVALUE(Results!B51)</f>
@@ -3218,7 +3299,7 @@
       </c>
       <c r="D48" s="17">
         <f>IF(Results!D52= "Eps", 0, Results!D52)</f>
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3415,6 +3496,76 @@
         <v>5</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>0</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>1</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1400</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>2</v>
+      </c>
+      <c r="B73" s="3">
+        <v>500</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709645E0-C51E-4F7B-ADDF-C4582802EBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33141E5A-B6BB-42D9-8F88-67BDFE2AD676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="7" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
     <sheet name="W" sheetId="2" r:id="rId2"/>
     <sheet name="R" sheetId="3" r:id="rId3"/>
     <sheet name="T" sheetId="7" r:id="rId4"/>
-    <sheet name="O" sheetId="4" r:id="rId5"/>
-    <sheet name="S" sheetId="5" r:id="rId6"/>
-    <sheet name="Results" sheetId="8" r:id="rId7"/>
-    <sheet name="Analytic Results" sheetId="9" r:id="rId8"/>
+    <sheet name="L" sheetId="10" r:id="rId5"/>
+    <sheet name="O" sheetId="4" r:id="rId6"/>
+    <sheet name="S" sheetId="5" r:id="rId7"/>
+    <sheet name="Results" sheetId="8" r:id="rId8"/>
+    <sheet name="Analytic Results" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="40">
   <si>
     <t>Unskilled</t>
   </si>
@@ -145,10 +146,13 @@
     <t>W limit</t>
   </si>
   <si>
+    <t>SemiSkilled</t>
+  </si>
+  <si>
+    <t>Layoff Cost</t>
+  </si>
+  <si>
     <t>Eps</t>
-  </si>
-  <si>
-    <t>SemiSkilled</t>
   </si>
 </sst>
 </file>
@@ -180,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +287,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -331,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,6 +408,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,7 +906,7 @@
   <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,6 +1003,56 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CE976A-94FD-43E9-843B-AAFCBC015005}">
+  <sheetPr>
+    <tabColor theme="1" tint="4.9989318521683403E-2"/>
+  </sheetPr>
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10">
+        <v>200</v>
+      </c>
+      <c r="D3" s="10">
+        <v>500</v>
+      </c>
+      <c r="E3" s="10">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DB2278-BCF6-4143-805D-E01057BC67D4}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -997,7 +1060,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,7 +1117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048B9419-D96E-4592-8913-CDE1462A80FE}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -1119,14 +1182,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393493DB-C15A-47DF-A068-738B05E7E33D}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="B1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1222,10 +1285,10 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1250,7 +1313,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>800</v>
@@ -1264,13 +1327,13 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -1289,13 +1352,13 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -1303,13 +1366,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -1317,13 +1380,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -1331,13 +1394,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -1356,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -1370,13 +1433,13 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -1384,13 +1447,13 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
@@ -1398,13 +1461,13 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
@@ -1426,10 +1489,10 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -1437,10 +1500,10 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -1454,7 +1517,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29">
         <v>140</v>
@@ -1465,13 +1528,13 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
@@ -1493,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E33">
         <v>200</v>
@@ -1507,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F34">
         <v>41</v>
@@ -1521,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
@@ -1532,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E36">
         <v>200</v>
@@ -1546,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -1562,7 +1625,7 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
@@ -1573,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
@@ -1585,7 +1648,7 @@
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F40" s="16"/>
     </row>
@@ -1597,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
@@ -1608,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
@@ -1619,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
@@ -1630,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
@@ -1674,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
@@ -1688,7 +1751,7 @@
         <v>184</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
@@ -1699,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
@@ -1710,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
@@ -1721,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
@@ -1732,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
@@ -1743,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
@@ -1754,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
@@ -1765,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
@@ -1776,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
@@ -1787,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
@@ -1798,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1806,14 +1869,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0981435F-E468-423E-B9AB-BE5B908F2544}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A2:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+    <sheetView zoomScale="108" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2218,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33141E5A-B6BB-42D9-8F88-67BDFE2AD676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EB13D0-7FFA-40C3-85E4-DDF64C4E0EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="7" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="44">
   <si>
     <t>Unskilled</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>Layoff Cost</t>
+  </si>
+  <si>
+    <t>Training Cost</t>
+  </si>
+  <si>
+    <t>Parttime Cost</t>
+  </si>
+  <si>
+    <t>Overhire Cost</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
   </si>
   <si>
     <t>Eps</t>
@@ -341,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,6 +423,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,9 +1202,9 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B1:H62"/>
+  <dimension ref="B1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1285,10 +1300,10 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1313,7 +1328,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>800</v>
@@ -1327,13 +1342,13 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -1352,13 +1367,13 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -1366,13 +1381,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -1380,13 +1395,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -1394,13 +1409,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -1419,13 +1434,13 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -1433,13 +1448,13 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -1447,13 +1462,13 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
@@ -1461,13 +1476,13 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
@@ -1489,10 +1504,10 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -1500,10 +1515,10 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -1517,7 +1532,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E29">
         <v>140</v>
@@ -1528,13 +1543,13 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
@@ -1556,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>200</v>
@@ -1570,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F34">
         <v>41</v>
@@ -1584,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
@@ -1595,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E36">
         <v>200</v>
@@ -1609,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -1625,7 +1640,7 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
@@ -1636,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
@@ -1648,7 +1663,7 @@
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F40" s="16"/>
     </row>
@@ -1660,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
@@ -1671,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
@@ -1682,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
@@ -1693,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
@@ -1737,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
@@ -1751,7 +1766,7 @@
         <v>184</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
@@ -1762,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
@@ -1773,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
@@ -1784,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
@@ -1795,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
@@ -1806,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
@@ -1817,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
@@ -1828,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
@@ -1839,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
@@ -1850,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
@@ -1861,7 +1876,22 @@
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>738000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>738400</v>
       </c>
     </row>
   </sheetData>
@@ -1876,8 +1906,8 @@
   </sheetPr>
   <dimension ref="A2:T74"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="108" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3038,6 +3068,22 @@
         <f>IF(Results!E24= "Eps", 0, Results!E24)</f>
         <v>0</v>
       </c>
+      <c r="G24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="21">
+        <f>Results!B65</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G25" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="21">
+        <f>Results!B67</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
@@ -3055,6 +3101,13 @@
         <f>IF(Results!E26= "Eps", 0, Results!E26)</f>
         <v>Skilled</v>
       </c>
+      <c r="G26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="21">
+        <f>Results!B69</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
@@ -3075,6 +3128,13 @@
       <c r="E27" s="17">
         <f>IF(Results!E27= "Eps", 0, Results!E27)</f>
         <v>0</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="21">
+        <f>Results!B71</f>
+        <v>738000</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -3094,6 +3154,13 @@
       <c r="E28" s="17">
         <f>IF(Results!E28= "Eps", 0, Results!E28)</f>
         <v>100</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="21">
+        <f>Results!B73</f>
+        <v>738400</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EB13D0-7FFA-40C3-85E4-DDF64C4E0EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC578ACC-ED5C-414A-AEAF-0DBD3CE1D537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="44">
   <si>
     <t>Unskilled</t>
   </si>
@@ -972,26 +972,27 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="D4:E8"/>
+  <dimension ref="C4:G15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
@@ -999,18 +1000,63 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="15">
         <v>0.25</v>
       </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15">
+        <v>400</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1025,7 +1071,7 @@
   <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1247,7 +1293,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1695</v>
+        <v>1000</v>
       </c>
       <c r="D4">
         <v>1400</v>
@@ -1261,7 +1307,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>1360</v>
+        <v>500</v>
       </c>
       <c r="D5">
         <v>2000</v>
@@ -1274,14 +1320,14 @@
       <c r="B6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>1230</v>
+      <c r="C6" t="s">
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>2540</v>
+        <v>2500</v>
       </c>
       <c r="E6">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1306,18 +1352,18 @@
         <v>43</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>60.000000183920243</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
-        <v>46</v>
+      <c r="C10" t="s">
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>600.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -1334,7 +1380,7 @@
         <v>800</v>
       </c>
       <c r="E11">
-        <v>500.0000000000004</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1433,8 +1479,8 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
-        <v>43</v>
+      <c r="C21">
+        <v>814.0000000413819</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
@@ -1447,8 +1493,8 @@
       <c r="B22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C22" t="s">
-        <v>43</v>
+      <c r="C22">
+        <v>269.99999999999983</v>
       </c>
       <c r="D22" t="s">
         <v>43</v>
@@ -1461,8 +1507,8 @@
       <c r="B23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C23" t="s">
-        <v>43</v>
+      <c r="C23">
+        <v>364.99999999999966</v>
       </c>
       <c r="D23" t="s">
         <v>43</v>
@@ -1500,8 +1546,8 @@
       <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C27">
-        <v>4</v>
+      <c r="C27" t="s">
+        <v>43</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
@@ -1520,22 +1566,22 @@
       <c r="D28" t="s">
         <v>43</v>
       </c>
-      <c r="E28">
-        <v>100</v>
+      <c r="E28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C29">
-        <v>8</v>
+      <c r="C29" t="s">
+        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>43</v>
       </c>
-      <c r="E29">
-        <v>140</v>
+      <c r="E29" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
@@ -1573,9 +1619,6 @@
       <c r="D33" t="s">
         <v>43</v>
       </c>
-      <c r="E33">
-        <v>200</v>
-      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
@@ -1587,9 +1630,6 @@
       <c r="E34" t="s">
         <v>43</v>
       </c>
-      <c r="F34">
-        <v>41</v>
-      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
@@ -1613,7 +1653,7 @@
         <v>43</v>
       </c>
       <c r="E36">
-        <v>200</v>
+        <v>130.00000000000017</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
@@ -1627,7 +1667,7 @@
         <v>43</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>100.00000000000018</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
@@ -1653,6 +1693,9 @@
       <c r="D39" t="s">
         <v>43</v>
       </c>
+      <c r="E39">
+        <v>85.000000000000369</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
@@ -1665,7 +1708,9 @@
       <c r="E40" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="16"/>
+      <c r="F40" s="16">
+        <v>125</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
@@ -1763,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>184</v>
+        <v>26.000000082763837</v>
       </c>
       <c r="E52" t="s">
         <v>43</v>
@@ -1776,6 +1821,12 @@
       <c r="C53" s="16" t="s">
         <v>2</v>
       </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>2.0000001655280357</v>
+      </c>
       <c r="F53" t="s">
         <v>43</v>
       </c>
@@ -1881,17 +1932,17 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71">
-        <v>738000</v>
+        <v>198500.00000000029</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>289800.00000827626</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73">
-        <v>738400</v>
+        <v>488300.00000827655</v>
       </c>
     </row>
   </sheetData>
@@ -1906,8 +1957,8 @@
   </sheetPr>
   <dimension ref="A2:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="108" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2020,7 +2071,7 @@
       </c>
       <c r="C4" s="17">
         <f>IF(Results!C4= "Eps", 0, Results!C4)</f>
-        <v>1695</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="17">
         <f>IF(Results!D4= "Eps", 0, Results!D4)</f>
@@ -2047,23 +2098,23 @@
       </c>
       <c r="K4" s="17">
         <f>VLOOKUP($G4,$B$21:$E$24,2,FALSE)</f>
-        <v>0</v>
+        <v>814.0000000413819</v>
       </c>
       <c r="L4" s="23">
         <f>VLOOKUP($G4,$B$27:$E$30,2,FALSE)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M4" s="17">
         <f>E33</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N4" s="17">
         <f>D49</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" s="17">
         <f>D48</f>
-        <v>184</v>
+        <v>26.000000082763837</v>
       </c>
       <c r="P4" s="23">
         <v>0</v>
@@ -2088,7 +2139,7 @@
       </c>
       <c r="C5" s="17">
         <f>IF(Results!C5= "Eps", 0, Results!C5)</f>
-        <v>1360</v>
+        <v>500</v>
       </c>
       <c r="D5" s="17">
         <f>IF(Results!D5= "Eps", 0, Results!D5)</f>
@@ -2103,11 +2154,11 @@
       </c>
       <c r="H5" s="23">
         <f>VLOOKUP($G5,$B$3:$E$6,2,FALSE)</f>
-        <v>1695</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="17">
         <f>VLOOKUP($G5,$B$9:$E$12,2,FALSE)</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J5" s="17">
         <f>VLOOKUP($G5,$B$15:$E$18,2,FALSE)</f>
@@ -2115,7 +2166,7 @@
       </c>
       <c r="K5" s="17">
         <f>VLOOKUP($G5,$B$21:$E$24,2,FALSE)</f>
-        <v>0</v>
+        <v>269.99999999999983</v>
       </c>
       <c r="L5" s="23">
         <f>VLOOKUP($G5,$B$27:$E$30,2,FALSE)</f>
@@ -2123,7 +2174,7 @@
       </c>
       <c r="M5" s="17">
         <f>E36</f>
-        <v>200</v>
+        <v>130.00000000000017</v>
       </c>
       <c r="N5" s="17">
         <f>D52</f>
@@ -2135,7 +2186,7 @@
       </c>
       <c r="P5" s="23">
         <f>$B$67/100* (I4+ L4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="23">
         <f>0.01* $B$68* (H4)</f>
@@ -2143,7 +2194,7 @@
       </c>
       <c r="R5" s="23">
         <f>R4+I4+L4-K4-M4+0.5* N4+0.5* O4-P5-Q5</f>
-        <v>1695</v>
+        <v>1000</v>
       </c>
       <c r="S5" s="17">
         <f>B72</f>
@@ -2158,22 +2209,22 @@
       </c>
       <c r="C6" s="17">
         <f>IF(Results!C6= "Eps", 0, Results!C6)</f>
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="D6" s="17">
         <f>IF(Results!D6= "Eps", 0, Results!D6)</f>
-        <v>2540</v>
+        <v>2500</v>
       </c>
       <c r="E6" s="17">
         <f>IF(Results!E6= "Eps", 0, Results!E6)</f>
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G6" s="19">
         <v>2</v>
       </c>
       <c r="H6" s="23">
         <f>VLOOKUP($G6,$B$3:$E$6,2,FALSE)</f>
-        <v>1360</v>
+        <v>500</v>
       </c>
       <c r="I6" s="17">
         <f>VLOOKUP($G6,$B$9:$E$12,2,FALSE)</f>
@@ -2185,15 +2236,15 @@
       </c>
       <c r="K6" s="17">
         <f>VLOOKUP($G6,$B$21:$E$24,2,FALSE)</f>
-        <v>0</v>
+        <v>364.99999999999966</v>
       </c>
       <c r="L6" s="23">
         <f>VLOOKUP($G6,$B$27:$E$30,2,FALSE)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M6" s="17">
         <f>E39</f>
-        <v>0</v>
+        <v>85.000000000000369</v>
       </c>
       <c r="N6" s="17">
         <f>D55</f>
@@ -2205,15 +2256,15 @@
       </c>
       <c r="P6" s="23">
         <f>$B$67/100* (I5+ L5)</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="23">
         <f>0.01* $B$68* (H5)</f>
-        <v>169.5</v>
+        <v>100</v>
       </c>
       <c r="R6" s="23">
         <f t="shared" ref="R6:R7" si="0">R5+I5+L5-K5-M5+0.5* N5+0.5* O5-P6-Q6</f>
-        <v>1360</v>
+        <v>500</v>
       </c>
       <c r="S6" s="17">
         <f>B73</f>
@@ -2226,7 +2277,7 @@
       </c>
       <c r="H7" s="23">
         <f>VLOOKUP($G7,$B$3:$E$6,2,FALSE)</f>
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="I7" s="17">
         <f>VLOOKUP($G7,$B$9:$E$12,2,FALSE)</f>
@@ -2258,15 +2309,15 @@
       </c>
       <c r="P7" s="23">
         <f t="shared" ref="P7" si="1">$B$67/100* (I6+ L6)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="23">
         <f>0.01* $B$68* (H6)</f>
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="R7" s="23">
         <f t="shared" si="0"/>
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="S7" s="17">
         <f>B74</f>
@@ -2308,7 +2359,7 @@
       </c>
       <c r="E9" s="17">
         <f>IF(Results!E9= "Eps", 0, Results!E9)</f>
-        <v>10</v>
+        <v>60.000000183920243</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>37</v>
@@ -2322,11 +2373,11 @@
       </c>
       <c r="C10" s="17">
         <f>IF(Results!C10= "Eps", 0, Results!C10)</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D10" s="17">
         <f>IF(Results!D10= "Eps", 0, Results!D10)</f>
-        <v>600.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="E10" s="17">
         <f>IF(Results!E10= "Eps", 0, Results!E10)</f>
@@ -2391,7 +2442,7 @@
       </c>
       <c r="E11" s="17">
         <f>IF(Results!E11= "Eps", 0, Results!E11)</f>
-        <v>500.0000000000004</v>
+        <v>500</v>
       </c>
       <c r="G11" s="19">
         <v>0</v>
@@ -2418,19 +2469,19 @@
       </c>
       <c r="M11" s="17">
         <f>F34</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="N11" s="17">
         <f>M4</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O11" s="17">
         <f>D48</f>
-        <v>184</v>
+        <v>26.000000082763837</v>
       </c>
       <c r="P11" s="17">
         <f>E49</f>
-        <v>0</v>
+        <v>2.0000001655280357</v>
       </c>
       <c r="Q11" s="23">
         <v>0</v>
@@ -2474,7 +2525,7 @@
       </c>
       <c r="I12" s="17">
         <f>VLOOKUP($G12,$B$9:$E$12,3,FALSE)</f>
-        <v>600.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="J12" s="17">
         <f>VLOOKUP($G12,$B$15:$E$18,3,FALSE)</f>
@@ -2490,11 +2541,11 @@
       </c>
       <c r="M12" s="17">
         <f>F37</f>
-        <v>10</v>
+        <v>100.00000000000018</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" ref="N12:N14" si="2">M5</f>
-        <v>200</v>
+        <v>130.00000000000017</v>
       </c>
       <c r="O12" s="17">
         <f>D51</f>
@@ -2514,7 +2565,7 @@
       </c>
       <c r="S12" s="17">
         <f>S11+I11+L11-K11+N11-O11+0.5* P11-M11-Q12-R12</f>
-        <v>1400</v>
+        <v>1400.0000000000002</v>
       </c>
       <c r="T12" s="17">
         <f>C72</f>
@@ -2547,11 +2598,11 @@
       </c>
       <c r="M13" s="17">
         <f>F40</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="N13" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>85.000000000000369</v>
       </c>
       <c r="O13" s="17">
         <f>D54</f>
@@ -2563,7 +2614,7 @@
       </c>
       <c r="Q13" s="23">
         <f t="shared" ref="Q13:Q14" si="3">$C$67/100* (I12+ L12)</f>
-        <v>120.00000000000003</v>
+        <v>160</v>
       </c>
       <c r="R13" s="23">
         <f t="shared" ref="R13:R14" si="4">0.01* $C$68* (H12)</f>
@@ -2599,7 +2650,7 @@
       </c>
       <c r="H14" s="17">
         <f>VLOOKUP($G14,$B$3:$E$6,3,FALSE)</f>
-        <v>2540</v>
+        <v>2500</v>
       </c>
       <c r="I14" s="17">
         <f>VLOOKUP($G14,$B$9:$E$12,3,FALSE)</f>
@@ -2643,7 +2694,7 @@
       </c>
       <c r="S14" s="17">
         <f t="shared" si="5"/>
-        <v>2540</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="T14" s="17">
         <f>C74</f>
@@ -2778,7 +2829,7 @@
       </c>
       <c r="I18" s="23">
         <f>VLOOKUP($G18,$B$9:$E$12,4,FALSE)</f>
-        <v>10</v>
+        <v>60.000000183920243</v>
       </c>
       <c r="J18" s="17">
         <f>VLOOKUP($G18,$B$15:$E$18,4,FALSE)</f>
@@ -2794,15 +2845,15 @@
       </c>
       <c r="M18" s="17">
         <f>M11</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="N18" s="17">
         <f>P11</f>
-        <v>0</v>
+        <v>2.0000001655280357</v>
       </c>
       <c r="O18" s="17">
         <f>N4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" s="23">
         <v>0</v>
@@ -2841,11 +2892,11 @@
       </c>
       <c r="L19" s="23">
         <f>VLOOKUP($G19,$B$27:$E$30,4,FALSE)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" ref="M19:M21" si="6">M12</f>
-        <v>10</v>
+        <v>100.00000000000018</v>
       </c>
       <c r="N19" s="17">
         <f t="shared" ref="N19:N21" si="7">P12</f>
@@ -2857,7 +2908,7 @@
       </c>
       <c r="P19" s="23">
         <f>$D$67/100* (I18+ L18)</f>
-        <v>1</v>
+        <v>6.0000000183920248</v>
       </c>
       <c r="Q19" s="23">
         <f>0.01* $D$68* (H18)</f>
@@ -2865,7 +2916,7 @@
       </c>
       <c r="R19" s="23">
         <f>R18+I18+L18-K18+M18-N18-O18-P19-Q19</f>
-        <v>1000</v>
+        <v>1000.0000000000002</v>
       </c>
       <c r="S19" s="17">
         <f>D72</f>
@@ -2897,7 +2948,7 @@
       </c>
       <c r="I20" s="23">
         <f>VLOOKUP($G20,$B$9:$E$12,4,FALSE)</f>
-        <v>500.0000000000004</v>
+        <v>500</v>
       </c>
       <c r="J20" s="17">
         <f>VLOOKUP($G20,$B$15:$E$18,4,FALSE)</f>
@@ -2909,11 +2960,11 @@
       </c>
       <c r="L20" s="23">
         <f>VLOOKUP($G20,$B$27:$E$30,4,FALSE)</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="M20" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="N20" s="17">
         <f t="shared" si="7"/>
@@ -2925,7 +2976,7 @@
       </c>
       <c r="P20" s="23">
         <f t="shared" ref="P20:P21" si="9">$D$67/100* (I19+ L19)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="23">
         <f t="shared" ref="Q20:Q21" si="10">0.01* $D$68* (H19)</f>
@@ -2933,7 +2984,7 @@
       </c>
       <c r="R20" s="23">
         <f t="shared" ref="R20:R21" si="11">R19+I19+L19-K19+M19-N19-O19-P20-Q20</f>
-        <v>1500</v>
+        <v>1500.0000000000005</v>
       </c>
       <c r="S20" s="17">
         <f>D73</f>
@@ -2950,7 +3001,7 @@
       </c>
       <c r="C21" s="17">
         <f>IF(Results!C21= "Eps", 0, Results!C21)</f>
-        <v>0</v>
+        <v>814.0000000413819</v>
       </c>
       <c r="D21" s="17">
         <f>IF(Results!D21= "Eps", 0, Results!D21)</f>
@@ -2965,7 +3016,7 @@
       </c>
       <c r="H21" s="17">
         <f>VLOOKUP($G21,$B$3:$E$6,4,FALSE)</f>
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I21" s="23">
         <f>VLOOKUP($G21,$B$9:$E$12,4,FALSE)</f>
@@ -2997,7 +3048,7 @@
       </c>
       <c r="P21" s="23">
         <f t="shared" si="9"/>
-        <v>64.000000000000043</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="23">
         <f t="shared" si="10"/>
@@ -3005,7 +3056,7 @@
       </c>
       <c r="R21" s="23">
         <f t="shared" si="11"/>
-        <v>2001.0000000000005</v>
+        <v>2000.0000000000005</v>
       </c>
       <c r="S21" s="17">
         <f>D74</f>
@@ -3020,7 +3071,7 @@
       </c>
       <c r="C22" s="17">
         <f>IF(Results!C22= "Eps", 0, Results!C22)</f>
-        <v>0</v>
+        <v>269.99999999999983</v>
       </c>
       <c r="D22" s="17">
         <f>IF(Results!D22= "Eps", 0, Results!D22)</f>
@@ -3039,7 +3090,7 @@
       </c>
       <c r="C23" s="17">
         <f>IF(Results!C23= "Eps", 0, Results!C23)</f>
-        <v>0</v>
+        <v>364.99999999999966</v>
       </c>
       <c r="D23" s="17">
         <f>IF(Results!D23= "Eps", 0, Results!D23)</f>
@@ -3073,7 +3124,7 @@
       </c>
       <c r="H24" s="21">
         <f>Results!B65</f>
-        <v>400</v>
+        <v>198500.00000000029</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -3106,7 +3157,7 @@
       </c>
       <c r="H26" s="21">
         <f>Results!B69</f>
-        <v>0</v>
+        <v>289800.00000827626</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -3119,7 +3170,7 @@
       </c>
       <c r="C27" s="17">
         <f>IF(Results!C27= "Eps", 0, Results!C27)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="17">
         <f>IF(Results!D27= "Eps", 0, Results!D27)</f>
@@ -3134,7 +3185,7 @@
       </c>
       <c r="H27" s="21">
         <f>Results!B71</f>
-        <v>738000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -3153,14 +3204,14 @@
       </c>
       <c r="E28" s="17">
         <f>IF(Results!E28= "Eps", 0, Results!E28)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>42</v>
       </c>
       <c r="H28" s="21">
         <f>Results!B73</f>
-        <v>738400</v>
+        <v>488300.00000827655</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -3171,7 +3222,7 @@
       </c>
       <c r="C29" s="17">
         <f>IF(Results!C29= "Eps", 0, Results!C29)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D29" s="17">
         <f>IF(Results!D29= "Eps", 0, Results!D29)</f>
@@ -3179,7 +3230,7 @@
       </c>
       <c r="E29" s="17">
         <f>IF(Results!E29= "Eps", 0, Results!E29)</f>
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -3235,7 +3286,7 @@
       </c>
       <c r="E33" s="17">
         <f>IF(Results!E33= "Eps", 0, Results!E33)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -3250,7 +3301,7 @@
       </c>
       <c r="F34" s="17">
         <f>IF(Results!F34= "Eps", 0, Results!F34)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -3276,7 +3327,7 @@
       </c>
       <c r="E36" s="17">
         <f>IF(Results!E36= "Eps", 0, Results!E36)</f>
-        <v>200</v>
+        <v>130.00000000000017</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -3291,7 +3342,7 @@
       </c>
       <c r="F37" s="17">
         <f>IF(Results!F37= "Eps", 0, Results!F37)</f>
-        <v>10</v>
+        <v>100.00000000000018</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -3317,7 +3368,7 @@
       </c>
       <c r="E39" s="17">
         <f>IF(Results!E39= "Eps", 0, Results!E39)</f>
-        <v>0</v>
+        <v>85.000000000000369</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -3332,7 +3383,7 @@
       </c>
       <c r="F40" s="17">
         <f>IF(Results!F40= "Eps", 0, Results!F40)</f>
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -3429,7 +3480,7 @@
       </c>
       <c r="D48" s="17">
         <f>IF(Results!D52= "Eps", 0, Results!D52)</f>
-        <v>184</v>
+        <v>26.000000082763837</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3444,11 +3495,11 @@
       </c>
       <c r="D49" s="17">
         <f>IF(Results!D53= "Eps", 0, Results!D53)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" s="17">
         <f>IF(Results!E53= "Eps", 0, Results!E53)</f>
-        <v>0</v>
+        <v>2.0000001655280357</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC578ACC-ED5C-414A-AEAF-0DBD3CE1D537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6368B9-44B4-4621-A5B2-05508DF3DB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="S" sheetId="5" r:id="rId7"/>
     <sheet name="Results" sheetId="8" r:id="rId8"/>
     <sheet name="Analytic Results" sheetId="9" r:id="rId9"/>
+    <sheet name="Solution for Part 1" sheetId="12" r:id="rId10"/>
+    <sheet name="Solution for Part 2" sheetId="11" r:id="rId11"/>
+    <sheet name="Comparison" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="74">
   <si>
     <t>Unskilled</t>
   </si>
@@ -166,12 +169,106 @@
   <si>
     <t>Eps</t>
   </si>
+  <si>
+    <t>Metric\Model</t>
+  </si>
+  <si>
+    <t>Total Parttime assign</t>
+  </si>
+  <si>
+    <t>Total train from unskilled to semi-skilled</t>
+  </si>
+  <si>
+    <t>Total train from semi-skilled to skilled</t>
+  </si>
+  <si>
+    <t>Total demote from skilled to semi-skilled</t>
+  </si>
+  <si>
+    <t>Total demote from skilled to unskilled</t>
+  </si>
+  <si>
+    <t>Total demote from semi-skilled to unskilled</t>
+  </si>
+  <si>
+    <t>Total train</t>
+  </si>
+  <si>
+    <t>Total demote</t>
+  </si>
+  <si>
+    <t>Total hire unskilled</t>
+  </si>
+  <si>
+    <t>Total hire skilled</t>
+  </si>
+  <si>
+    <t>Total hire semi-skilled</t>
+  </si>
+  <si>
+    <t>Total hire</t>
+  </si>
+  <si>
+    <t>Total overhire</t>
+  </si>
+  <si>
+    <t>Total overhire unskilled</t>
+  </si>
+  <si>
+    <t>Total overhire semi-skilled</t>
+  </si>
+  <si>
+    <t>Total overhire skilled</t>
+  </si>
+  <si>
+    <t>Total layoff</t>
+  </si>
+  <si>
+    <t>Total layoff unskilled</t>
+  </si>
+  <si>
+    <t>Total layoff semi-skilled</t>
+  </si>
+  <si>
+    <t>Total layoff skilled</t>
+  </si>
+  <si>
+    <t>Total churn unskilled new</t>
+  </si>
+  <si>
+    <t>Total churn semi-skilled new</t>
+  </si>
+  <si>
+    <t>Total churn skilled new</t>
+  </si>
+  <si>
+    <t>Total churn new</t>
+  </si>
+  <si>
+    <t>Total churn unskilled old</t>
+  </si>
+  <si>
+    <t>Total churn semi-skilled old</t>
+  </si>
+  <si>
+    <t>Total churn skilled old</t>
+  </si>
+  <si>
+    <t>Total churn old</t>
+  </si>
+  <si>
+    <t>Total churn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +286,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -306,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -349,11 +453,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,8 +544,18 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -844,6 +970,3447 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1AFE74-D632-48D7-84D6-FBBFA6DF1ECB}">
+  <dimension ref="A2:T74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="17"/>
+    <col min="11" max="11" width="8.33203125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="17" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1424</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
+        <v>625.99999999991485</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>199</v>
+      </c>
+      <c r="N4" s="17">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17">
+        <v>49.999999999829626</v>
+      </c>
+      <c r="P4" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>0</v>
+      </c>
+      <c r="R4" s="23">
+        <v>2000</v>
+      </c>
+      <c r="S4" s="17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17">
+        <v>520.00000000000011</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1500</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>179.99999999999986</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>200</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0</v>
+      </c>
+      <c r="P5" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>200</v>
+      </c>
+      <c r="R5" s="23">
+        <v>999.99999999999977</v>
+      </c>
+      <c r="S5" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17">
+        <v>25</v>
+      </c>
+      <c r="D6" s="17">
+        <v>2500</v>
+      </c>
+      <c r="E6" s="17">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2</v>
+      </c>
+      <c r="H6" s="23">
+        <v>520.00000000000011</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>40.000000000000227</v>
+      </c>
+      <c r="K6" s="17">
+        <v>243.00000000000014</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>200</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>100</v>
+      </c>
+      <c r="R6" s="23">
+        <v>519.99999999999989</v>
+      </c>
+      <c r="S6" s="17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G7" s="19">
+        <v>3</v>
+      </c>
+      <c r="H7" s="23">
+        <v>25</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>50</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
+        <v>0</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0</v>
+      </c>
+      <c r="P7" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>52.000000000000014</v>
+      </c>
+      <c r="R7" s="23">
+        <v>24.999999999999758</v>
+      </c>
+      <c r="S7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>534</v>
+      </c>
+      <c r="E10" s="17">
+        <v>500</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <v>500</v>
+      </c>
+      <c r="E11" s="17">
+        <v>500</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1500</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>250.00000000034021</v>
+      </c>
+      <c r="N11" s="17">
+        <v>199</v>
+      </c>
+      <c r="O11" s="17">
+        <v>49.999999999829626</v>
+      </c>
+      <c r="P11" s="17">
+        <v>200.00000000034004</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>0</v>
+      </c>
+      <c r="R11" s="23">
+        <v>0</v>
+      </c>
+      <c r="S11" s="17">
+        <v>1500</v>
+      </c>
+      <c r="T11" s="17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19">
+        <v>3</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1424</v>
+      </c>
+      <c r="I12" s="17">
+        <v>534</v>
+      </c>
+      <c r="J12" s="17">
+        <v>48</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0</v>
+      </c>
+      <c r="L12" s="23">
+        <v>150</v>
+      </c>
+      <c r="M12" s="17">
+        <v>100</v>
+      </c>
+      <c r="N12" s="17">
+        <v>200</v>
+      </c>
+      <c r="O12" s="17">
+        <v>0</v>
+      </c>
+      <c r="P12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>0</v>
+      </c>
+      <c r="R12" s="23">
+        <v>75</v>
+      </c>
+      <c r="S12" s="17">
+        <v>1424.0000000000002</v>
+      </c>
+      <c r="T12" s="17">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G13" s="19">
+        <v>2</v>
+      </c>
+      <c r="H13" s="17">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="17">
+        <v>500</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>1</v>
+      </c>
+      <c r="N13" s="17">
+        <v>200</v>
+      </c>
+      <c r="O13" s="17">
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="R13" s="23">
+        <v>71.2</v>
+      </c>
+      <c r="S13" s="17">
+        <v>1999.9999999999998</v>
+      </c>
+      <c r="T13" s="17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>3</v>
+      </c>
+      <c r="H14" s="17">
+        <v>2500</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
+        <v>0</v>
+      </c>
+      <c r="O14" s="17">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>100</v>
+      </c>
+      <c r="R14" s="23">
+        <v>100</v>
+      </c>
+      <c r="S14" s="17">
+        <v>2500</v>
+      </c>
+      <c r="T14" s="17">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <v>48</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19">
+        <v>2</v>
+      </c>
+      <c r="C17" s="17">
+        <v>40.000000000000227</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19">
+        <v>3</v>
+      </c>
+      <c r="C18" s="17">
+        <v>50</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0</v>
+      </c>
+      <c r="L18" s="23">
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>250.00000000034021</v>
+      </c>
+      <c r="N18" s="17">
+        <v>200.00000000034004</v>
+      </c>
+      <c r="O18" s="17">
+        <v>0</v>
+      </c>
+      <c r="P18" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>0</v>
+      </c>
+      <c r="R18" s="23">
+        <v>1000</v>
+      </c>
+      <c r="S18" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="23">
+        <v>500</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0</v>
+      </c>
+      <c r="L19" s="23">
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>100</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0</v>
+      </c>
+      <c r="P19" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>50</v>
+      </c>
+      <c r="R19" s="23">
+        <v>1000</v>
+      </c>
+      <c r="S19" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1500</v>
+      </c>
+      <c r="I20" s="23">
+        <v>500</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="23">
+        <v>140</v>
+      </c>
+      <c r="M20" s="17">
+        <v>1</v>
+      </c>
+      <c r="N20" s="17">
+        <v>2</v>
+      </c>
+      <c r="O20" s="17">
+        <v>0</v>
+      </c>
+      <c r="P20" s="23">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>50</v>
+      </c>
+      <c r="R20" s="23">
+        <v>1500</v>
+      </c>
+      <c r="S20" s="17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
+        <v>625.99999999991485</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <v>3</v>
+      </c>
+      <c r="H21" s="17">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
+        <v>0</v>
+      </c>
+      <c r="L21" s="23">
+        <v>0</v>
+      </c>
+      <c r="M21" s="17">
+        <v>0</v>
+      </c>
+      <c r="N21" s="17">
+        <v>0</v>
+      </c>
+      <c r="O21" s="17">
+        <v>0</v>
+      </c>
+      <c r="P21" s="23">
+        <v>64</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>75</v>
+      </c>
+      <c r="R21" s="23">
+        <v>2000</v>
+      </c>
+      <c r="S21" s="17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19">
+        <v>1</v>
+      </c>
+      <c r="C22" s="17">
+        <v>179.99999999999986</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19">
+        <v>2</v>
+      </c>
+      <c r="C23" s="17">
+        <v>243.00000000000014</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19">
+        <v>3</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="21">
+        <v>415100.00000017008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G25" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="21">
+        <v>64200.000000000116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="21">
+        <v>209799.99999998297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="19">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="21">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19">
+        <v>1</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0</v>
+      </c>
+      <c r="D28" s="17">
+        <v>150</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="21">
+        <v>1409100.0000001532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19">
+        <v>2</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19">
+        <v>3</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="19">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="17">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17">
+        <v>250.00000000034021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19">
+        <v>1</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19">
+        <v>1</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19">
+        <v>1</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19">
+        <v>2</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19">
+        <v>2</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19">
+        <v>2</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19">
+        <v>3</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19">
+        <v>3</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19">
+        <v>3</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="19">
+        <v>0</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19">
+        <v>0</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="17">
+        <v>49.999999999829626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19">
+        <v>0</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="17">
+        <v>0</v>
+      </c>
+      <c r="E49" s="17">
+        <v>200.00000000034004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19">
+        <v>1</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="19">
+        <v>1</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="19">
+        <v>1</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="17">
+        <v>0</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="19">
+        <v>2</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19">
+        <v>2</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19">
+        <v>2</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="17">
+        <v>0</v>
+      </c>
+      <c r="E55" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19">
+        <v>3</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="18"/>
+      <c r="B57" s="19">
+        <v>3</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
+      <c r="B58" s="19">
+        <v>3</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="17">
+        <v>0</v>
+      </c>
+      <c r="E58" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="6">
+        <v>25</v>
+      </c>
+      <c r="C67" s="6">
+        <v>20</v>
+      </c>
+      <c r="D67" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="6">
+        <v>10</v>
+      </c>
+      <c r="C68" s="6">
+        <v>5</v>
+      </c>
+      <c r="D68" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>0</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>1</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1400</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>2</v>
+      </c>
+      <c r="B73" s="3">
+        <v>500</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D915A85-1C44-4365-B131-3DC9A2FE90C9}">
+  <dimension ref="A2:T74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="17"/>
+    <col min="11" max="11" width="8.33203125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="17" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1400</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
+        <v>814.0000000413819</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="17">
+        <v>2</v>
+      </c>
+      <c r="O4" s="17">
+        <v>26.000000082763837</v>
+      </c>
+      <c r="P4" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>0</v>
+      </c>
+      <c r="R4" s="23">
+        <v>2000</v>
+      </c>
+      <c r="S4" s="17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17">
+        <v>500</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1500</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>269.99999999999983</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>130.00000000000017</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0</v>
+      </c>
+      <c r="P5" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>200</v>
+      </c>
+      <c r="R5" s="23">
+        <v>1000</v>
+      </c>
+      <c r="S5" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>2500</v>
+      </c>
+      <c r="E6" s="17">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2</v>
+      </c>
+      <c r="H6" s="23">
+        <v>500</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <v>364.99999999999966</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>85.000000000000369</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>100</v>
+      </c>
+      <c r="R6" s="23">
+        <v>500</v>
+      </c>
+      <c r="S6" s="17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G7" s="19">
+        <v>3</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
+        <v>0</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0</v>
+      </c>
+      <c r="P7" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>50</v>
+      </c>
+      <c r="R7" s="23">
+        <v>0</v>
+      </c>
+      <c r="S7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>60.000000183920243</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>800</v>
+      </c>
+      <c r="E10" s="17">
+        <v>500</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <v>800</v>
+      </c>
+      <c r="E11" s="17">
+        <v>500</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1500</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0</v>
+      </c>
+      <c r="N11" s="17">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17">
+        <v>26.000000082763837</v>
+      </c>
+      <c r="P11" s="17">
+        <v>2.0000001655280357</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>0</v>
+      </c>
+      <c r="R11" s="23">
+        <v>0</v>
+      </c>
+      <c r="S11" s="17">
+        <v>1500</v>
+      </c>
+      <c r="T11" s="17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19">
+        <v>3</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1400</v>
+      </c>
+      <c r="I12" s="17">
+        <v>800</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>100.00000000000018</v>
+      </c>
+      <c r="N12" s="17">
+        <v>130.00000000000017</v>
+      </c>
+      <c r="O12" s="17">
+        <v>0</v>
+      </c>
+      <c r="P12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>0</v>
+      </c>
+      <c r="R12" s="23">
+        <v>75</v>
+      </c>
+      <c r="S12" s="17">
+        <v>1400.0000000000002</v>
+      </c>
+      <c r="T12" s="17">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G13" s="19">
+        <v>2</v>
+      </c>
+      <c r="H13" s="17">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="17">
+        <v>800</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>125</v>
+      </c>
+      <c r="N13" s="17">
+        <v>85.000000000000369</v>
+      </c>
+      <c r="O13" s="17">
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>160</v>
+      </c>
+      <c r="R13" s="23">
+        <v>70</v>
+      </c>
+      <c r="S13" s="17">
+        <v>2000</v>
+      </c>
+      <c r="T13" s="17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>3</v>
+      </c>
+      <c r="H14" s="17">
+        <v>2500</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
+        <v>0</v>
+      </c>
+      <c r="O14" s="17">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>160</v>
+      </c>
+      <c r="R14" s="23">
+        <v>100</v>
+      </c>
+      <c r="S14" s="17">
+        <v>2500.0000000000005</v>
+      </c>
+      <c r="T14" s="17">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19">
+        <v>2</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19">
+        <v>3</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="23">
+        <v>60.000000183920243</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0</v>
+      </c>
+      <c r="L18" s="23">
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>0</v>
+      </c>
+      <c r="N18" s="17">
+        <v>2.0000001655280357</v>
+      </c>
+      <c r="O18" s="17">
+        <v>2</v>
+      </c>
+      <c r="P18" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>0</v>
+      </c>
+      <c r="R18" s="23">
+        <v>1000</v>
+      </c>
+      <c r="S18" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="23">
+        <v>500</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0</v>
+      </c>
+      <c r="L19" s="23">
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>100.00000000000018</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0</v>
+      </c>
+      <c r="P19" s="23">
+        <v>6.0000000183920248</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>50</v>
+      </c>
+      <c r="R19" s="23">
+        <v>1000.0000000000002</v>
+      </c>
+      <c r="S19" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1500</v>
+      </c>
+      <c r="I20" s="23">
+        <v>500</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="23">
+        <v>0</v>
+      </c>
+      <c r="M20" s="17">
+        <v>125</v>
+      </c>
+      <c r="N20" s="17">
+        <v>0</v>
+      </c>
+      <c r="O20" s="17">
+        <v>0</v>
+      </c>
+      <c r="P20" s="23">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>50</v>
+      </c>
+      <c r="R20" s="23">
+        <v>1500.0000000000005</v>
+      </c>
+      <c r="S20" s="17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
+        <v>814.0000000413819</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <v>3</v>
+      </c>
+      <c r="H21" s="17">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
+        <v>0</v>
+      </c>
+      <c r="L21" s="23">
+        <v>0</v>
+      </c>
+      <c r="M21" s="17">
+        <v>0</v>
+      </c>
+      <c r="N21" s="17">
+        <v>0</v>
+      </c>
+      <c r="O21" s="17">
+        <v>0</v>
+      </c>
+      <c r="P21" s="23">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>75</v>
+      </c>
+      <c r="R21" s="23">
+        <v>2000.0000000000005</v>
+      </c>
+      <c r="S21" s="17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19">
+        <v>1</v>
+      </c>
+      <c r="C22" s="17">
+        <v>269.99999999999983</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19">
+        <v>2</v>
+      </c>
+      <c r="C23" s="17">
+        <v>364.99999999999966</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19">
+        <v>3</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="21">
+        <v>198500.00000000029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G25" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="21">
+        <v>289800.00000827626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="19">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19">
+        <v>1</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="21">
+        <v>488300.00000827655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19">
+        <v>2</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19">
+        <v>3</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="19">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19">
+        <v>1</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
+        <v>130.00000000000017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19">
+        <v>1</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="17">
+        <v>100.00000000000018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19">
+        <v>1</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19">
+        <v>2</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="17">
+        <v>85.000000000000369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19">
+        <v>2</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19">
+        <v>2</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19">
+        <v>3</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19">
+        <v>3</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19">
+        <v>3</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="19">
+        <v>0</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19">
+        <v>0</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="17">
+        <v>26.000000082763837</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19">
+        <v>0</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="17">
+        <v>2</v>
+      </c>
+      <c r="E49" s="17">
+        <v>2.0000001655280357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19">
+        <v>1</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="19">
+        <v>1</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="19">
+        <v>1</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="17">
+        <v>0</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="19">
+        <v>2</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19">
+        <v>2</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19">
+        <v>2</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="17">
+        <v>0</v>
+      </c>
+      <c r="E55" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19">
+        <v>3</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="18"/>
+      <c r="B57" s="19">
+        <v>3</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
+      <c r="B58" s="19">
+        <v>3</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="17">
+        <v>0</v>
+      </c>
+      <c r="E58" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="6">
+        <v>25</v>
+      </c>
+      <c r="C67" s="6">
+        <v>20</v>
+      </c>
+      <c r="D67" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="6">
+        <v>10</v>
+      </c>
+      <c r="C68" s="6">
+        <v>5</v>
+      </c>
+      <c r="D68" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>0</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>1</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1400</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>2</v>
+      </c>
+      <c r="B73" s="3">
+        <v>500</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A90659-8D30-46F1-94F4-D9DDF1902A6D}">
+  <dimension ref="C2:E36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="26"/>
+    <col min="3" max="3" width="36.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="27">
+        <v>1</v>
+      </c>
+      <c r="E2" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="26">
+        <f>SUM('Solution for Part 1'!$I$4:$I$7)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <f>SUM('Solution for Part 2'!I4:I7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="26">
+        <f>SUM('Solution for Part 1'!$I$11:$I$14)</f>
+        <v>1034</v>
+      </c>
+      <c r="E4" s="26">
+        <f>SUM('Solution for Part 2'!I11:I14)</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="28">
+        <f>SUM('Solution for Part 1'!$I$18:$I$21)</f>
+        <v>1000</v>
+      </c>
+      <c r="E5" s="28">
+        <f>SUM('Solution for Part 2'!I18:I21)</f>
+        <v>1060.0000001839203</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="29">
+        <f>SUM(D3:D5)</f>
+        <v>2034</v>
+      </c>
+      <c r="E6" s="29">
+        <f>SUM(E3:E5)</f>
+        <v>2660.0000001839203</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="28">
+        <f>SUM('Solution for Part 1'!$L$4:$L$7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <f>SUM('Solution for Part 2'!$L$4:$L$7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="28">
+        <f>SUM('Solution for Part 1'!$L$11:$L$14)</f>
+        <v>150</v>
+      </c>
+      <c r="E8" s="28">
+        <f>SUM('Solution for Part 2'!$L$11:$L$14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="28">
+        <f>SUM('Solution for Part 1'!$L$18:$L$21)</f>
+        <v>140</v>
+      </c>
+      <c r="E9" s="28">
+        <f>SUM('Solution for Part 2'!$L$18:$L$21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="30">
+        <f>SUM(D7:D9)</f>
+        <v>290</v>
+      </c>
+      <c r="E10" s="30">
+        <f>SUM(E7:E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="28">
+        <f>SUM('Solution for Part 1'!$K$4:$K$7)</f>
+        <v>1048.999999999915</v>
+      </c>
+      <c r="E11" s="28">
+        <f>SUM('Solution for Part 2'!$K$4:$K$7)</f>
+        <v>1449.0000000413816</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="28">
+        <f>SUM('Solution for Part 1'!$K$11:$K$14)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="28">
+        <f>SUM('Solution for Part 2'!$K$11:$K$14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="28">
+        <f>SUM('Solution for Part 1'!$K$18:$K$21)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="28">
+        <f>SUM('Solution for Part 2'!$K$18:$K$21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="30">
+        <f>SUM(D11:D13)</f>
+        <v>1048.999999999915</v>
+      </c>
+      <c r="E14" s="30">
+        <f>SUM(E11:E13)</f>
+        <v>1449.0000000413816</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="31">
+        <f>SUM('Solution for Part 1'!J4:J7, 'Solution for Part 1'!J11:J14, 'Solution for Part 1'!J18:J21)</f>
+        <v>138.00000000000023</v>
+      </c>
+      <c r="E15" s="31">
+        <f>SUM('Solution for Part 2'!J4:J7, 'Solution for Part 2'!J11:J14, 'Solution for Part 2'!J18:J21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="28">
+        <f>SUM('Solution for Part 1'!$M$4:$M$7)</f>
+        <v>599</v>
+      </c>
+      <c r="E16" s="28">
+        <f>SUM('Solution for Part 2'!$M$4:$M$7)</f>
+        <v>215.00000000000054</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="28">
+        <f>SUM('Solution for Part 1'!$M$11:$M$14)</f>
+        <v>351.00000000034021</v>
+      </c>
+      <c r="E17" s="28">
+        <f>SUM('Solution for Part 2'!$M$11:$M$14)</f>
+        <v>225.00000000000017</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="30">
+        <f>SUM(D16:D17)</f>
+        <v>950.00000000034015</v>
+      </c>
+      <c r="E18" s="30">
+        <f>SUM(E16:E17)</f>
+        <v>440.00000000000068</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="28">
+        <f>SUM('Solution for Part 1'!$N$18:$N$21)</f>
+        <v>202.00000000034004</v>
+      </c>
+      <c r="E19" s="28">
+        <f>SUM('Solution for Part 2'!$N$18:$N$21)</f>
+        <v>2.0000001655280357</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="26">
+        <f>SUM('Solution for Part 1'!$O$18:$O$21)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="26">
+        <f>SUM('Solution for Part 2'!$O$18:$O$21)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="26">
+        <f>SUM('Solution for Part 1'!$O$11:$O$14)</f>
+        <v>49.999999999829626</v>
+      </c>
+      <c r="E21" s="26">
+        <f>SUM('Solution for Part 2'!$O$11:$O$14)</f>
+        <v>26.000000082763837</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="30">
+        <f>SUM(D19:D21)</f>
+        <v>252.00000000016968</v>
+      </c>
+      <c r="E22" s="30">
+        <f>SUM(E19:E21)</f>
+        <v>30.000000248291872</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="28">
+        <f>SUM('Solution for Part 1'!$P$4:$P$7)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="28">
+        <f>SUM('Solution for Part 2'!$P$4:$P$7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="28">
+        <f>SUM('Solution for Part 1'!$P$11:$P$14)</f>
+        <v>202.00000000034004</v>
+      </c>
+      <c r="E24" s="28">
+        <f>SUM('Solution for Part 2'!$P$11:$P$14)</f>
+        <v>2.0000001655280357</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="28">
+        <f>SUM('Solution for Part 1'!$P$18:$P$21)</f>
+        <v>114</v>
+      </c>
+      <c r="E25" s="28">
+        <f>SUM('Solution for Part 2'!$P$18:$P$21)</f>
+        <v>106.00000001839203</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="30">
+        <f>SUM(D23:D25)</f>
+        <v>316.00000000034004</v>
+      </c>
+      <c r="E26" s="30">
+        <f>SUM(E23:E25)</f>
+        <v>108.00000018392006</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="28">
+        <f>SUM('Solution for Part 1'!$Q$4:$Q$7)</f>
+        <v>352</v>
+      </c>
+      <c r="E27" s="28">
+        <f>SUM('Solution for Part 2'!$Q$4:$Q$7)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="28">
+        <f>SUM('Solution for Part 1'!$Q$11:$Q$14)</f>
+        <v>236.8</v>
+      </c>
+      <c r="E28" s="28">
+        <f>SUM('Solution for Part 2'!$Q$11:$Q$14)</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="28">
+        <f>SUM('Solution for Part 1'!$Q$18:$Q$21)</f>
+        <v>175</v>
+      </c>
+      <c r="E29" s="28">
+        <f>SUM('Solution for Part 2'!$Q$18:$Q$21)</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="30">
+        <f>SUM(D27:D29)</f>
+        <v>763.8</v>
+      </c>
+      <c r="E30" s="30">
+        <f>SUM(E27:E29)</f>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="32">
+        <f>D26+D30</f>
+        <v>1079.8000000003399</v>
+      </c>
+      <c r="E31" s="32">
+        <f>E26+E30</f>
+        <v>953.00000018392006</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="33">
+        <f>'Solution for Part 1'!H24</f>
+        <v>415100.00000017008</v>
+      </c>
+      <c r="E32" s="33">
+        <f>'Solution for Part 2'!H24</f>
+        <v>198500.00000000029</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="33">
+        <f>'Solution for Part 1'!H25</f>
+        <v>64200.000000000116</v>
+      </c>
+      <c r="E33" s="33">
+        <f>'Solution for Part 2'!H25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="33">
+        <f>'Solution for Part 1'!H26</f>
+        <v>209799.99999998297</v>
+      </c>
+      <c r="E34" s="33">
+        <f>'Solution for Part 2'!H26</f>
+        <v>289800.00000827626</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="33">
+        <f>'Solution for Part 1'!H27</f>
+        <v>720000</v>
+      </c>
+      <c r="E35" s="33">
+        <f>'Solution for Part 2'!H27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="34">
+        <f>'Solution for Part 1'!H28</f>
+        <v>1409100.0000001532</v>
+      </c>
+      <c r="E36" s="34">
+        <f>'Solution for Part 2'!H28</f>
+        <v>488300.00000827655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAF3DF3-835F-47D5-AD3D-218FFA3B6843}">
   <sheetPr>
@@ -1957,8 +5524,8 @@
   </sheetPr>
   <dimension ref="A2:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A8" zoomScale="108" workbookViewId="0">
+      <selection activeCell="A8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1968,7 +5535,7 @@
     <col min="3" max="5" width="12.21875" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5546875" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.21875" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="17" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="17" customWidth="1"/>

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6368B9-44B4-4621-A5B2-05508DF3DB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F486CEE9-D27E-4F71-82AF-0A809055F18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
@@ -266,7 +266,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -551,8 +551,8 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1AFE74-D632-48D7-84D6-FBBFA6DF1ECB}">
   <dimension ref="A2:T74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2457,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D915A85-1C44-4365-B131-3DC9A2FE90C9}">
   <dimension ref="A2:T74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3941,7 +3941,7 @@
   <dimension ref="C2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Phase2-answer/Pahse2_Data_OR2.xlsx
+++ b/Phase2-answer/Pahse2_Data_OR2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Operation Research 2\Project\Answer\Phase2-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F486CEE9-D27E-4F71-82AF-0A809055F18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE2B864-FF1E-453B-8BC2-DC01244CE205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="7" xr2:uid="{ECF2C842-86F1-4BFD-957D-54F5363C8BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
@@ -3940,7 +3940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A90659-8D30-46F1-94F4-D9DDF1902A6D}">
   <dimension ref="C2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
@@ -4817,7 +4817,7 @@
   </sheetPr>
   <dimension ref="B1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
